--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C247" t="n">

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,169 +2873,169 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>800</v>
+        <v>1523</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1999</v>
+        <v>2671</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>989</v>
+        <v>2300</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1299</v>
+        <v>8497.5</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1529</v>
+        <v>1160</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1990</v>
+        <v>1899</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1099</v>
+        <v>3300</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8290</v>
+        <v>900</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2699</v>
+        <v>2450</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3043,35 +3043,35 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3082</v>
+        <v>6376</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2205</v>
+        <v>1099</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3079,637 +3079,637 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4476</v>
+        <v>4750</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2350</v>
+        <v>3450</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1723</v>
+        <v>2200</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3190</v>
+        <v>4218</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>10489</v>
+        <v>1850</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3159</v>
+        <v>4200</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1990</v>
+        <v>1200</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1999</v>
+        <v>3300</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1099</v>
+        <v>1250</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1529</v>
+        <v>3100</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1899</v>
+        <v>3300</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2390</v>
+        <v>900</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>2205</v>
+        <v>1160</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2699</v>
+        <v>2671</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>999</v>
+        <v>8497.5</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3082</v>
+        <v>2300</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3159</v>
+        <v>6376</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1723</v>
+        <v>2450</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1115</v>
+        <v>4218</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4210</v>
+        <v>2200</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4476</v>
+        <v>1500</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>10489</v>
+        <v>4750</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3190</v>
+        <v>1850</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1099</v>
+        <v>3300</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1299</v>
+        <v>4200</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>800</v>
+        <v>3450</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1529</v>
+        <v>12200</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1899</v>
+        <v>1200</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>989</v>
+        <v>3100</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1999</v>
+        <v>1250</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1723</v>
+        <v>800</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3737,15 +3737,15 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3755,15 +3755,15 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2699</v>
+        <v>1299</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3773,15 +3773,15 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3791,15 +3791,15 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3809,15 +3809,15 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3827,15 +3827,15 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3845,15 +3845,15 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3863,15 +3863,15 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3881,15 +3881,15 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3899,15 +3899,15 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3917,15 +3917,15 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1115</v>
+        <v>2350</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3935,15 +3935,15 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3953,15 +3953,15 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>800</v>
+        <v>3190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3971,15 +3971,15 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1899</v>
+        <v>10489</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3989,15 +3989,15 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4007,15 +4007,15 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4025,15 +4025,15 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4043,15 +4043,15 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4061,15 +4061,15 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2699</v>
+        <v>800</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4079,15 +4079,15 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1990</v>
+        <v>1099</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4097,15 +4097,15 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3082</v>
+        <v>1529</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4115,15 +4115,15 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4133,15 +4133,15 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4151,15 +4151,15 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4169,15 +4169,15 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4187,15 +4187,15 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>989</v>
+        <v>8290</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4205,15 +4205,15 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4223,15 +4223,15 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4241,15 +4241,15 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3159</v>
+        <v>999</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4259,15 +4259,15 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4210</v>
+        <v>3082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4277,15 +4277,15 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4295,15 +4295,15 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4313,15 +4313,15 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4331,15 +4331,15 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1529</v>
+        <v>4210</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4349,15 +4349,15 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1299</v>
+        <v>4476</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4367,15 +4367,15 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1899</v>
+        <v>10489</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4385,15 +4385,15 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4403,15 +4403,15 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4421,15 +4421,15 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4439,15 +4439,15 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4457,15 +4457,15 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4475,15 +4475,15 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4493,15 +4493,15 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4511,15 +4511,15 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2205</v>
+        <v>1999</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4529,15 +4529,15 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4547,15 +4547,15 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1723</v>
+        <v>1990</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4565,15 +4565,15 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4583,15 +4583,15 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4601,15 +4601,15 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4210</v>
+        <v>2390</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4619,15 +4619,15 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1649</v>
+        <v>2205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4673,15 +4673,15 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4691,15 +4691,15 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4709,15 +4709,15 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1099</v>
+        <v>4210</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4745,15 +4745,15 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4763,15 +4763,15 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4781,15 +4781,15 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4817,15 +4817,15 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4835,15 +4835,15 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4853,15 +4853,15 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4871,15 +4871,15 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4889,15 +4889,15 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4907,15 +4907,15 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1723</v>
+        <v>1990</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4925,15 +4925,15 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4943,15 +4943,15 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4961,15 +4961,15 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4979,15 +4979,15 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3159</v>
+        <v>999</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4997,15 +4997,15 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5015,15 +5015,15 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1115</v>
+        <v>989</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5033,15 +5033,15 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1649</v>
+        <v>1723</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5051,15 +5051,15 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5069,17 +5069,1619 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>800</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>989</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>999</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>45767</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>989</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>800</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>999</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B304" t="inlineStr">
         <is>
           <t>Manteca</t>
         </is>
       </c>
-      <c r="C258" t="n">
+      <c r="C304" t="n">
         <v>1580</v>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>800</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>989</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>999</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>800</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>989</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D347" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,133 +3701,133 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1999</v>
+        <v>900</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>989</v>
+        <v>2671</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1299</v>
+        <v>1523</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1529</v>
+        <v>999</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1990</v>
+        <v>1160</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3835,17 +3835,17 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>8290</v>
+        <v>8497.5</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3853,709 +3853,709 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3082</v>
+        <v>3450</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2205</v>
+        <v>3300</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4476</v>
+        <v>4200</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2350</v>
+        <v>1850</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1723</v>
+        <v>2450</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3190</v>
+        <v>6376</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>10489</v>
+        <v>4750</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1115</v>
+        <v>4218</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45762</v>
+        <v>45770</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3159</v>
+        <v>2200</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1990</v>
+        <v>1200</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1999</v>
+        <v>3300</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1099</v>
+        <v>12200</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1529</v>
+        <v>1250</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45763</v>
+        <v>45770</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1299</v>
+        <v>1500</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>989</v>
+        <v>1523</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1899</v>
+        <v>1160</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2390</v>
+        <v>8497.5</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>8290</v>
+        <v>1199</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2699</v>
+        <v>3300</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>999</v>
+        <v>2300</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3082</v>
+        <v>2671</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3159</v>
+        <v>2200</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1723</v>
+        <v>4218</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1115</v>
+        <v>6376</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4210</v>
+        <v>2450</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>4476</v>
+        <v>1850</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>10489</v>
+        <v>4750</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45763</v>
+        <v>45771</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3190</v>
+        <v>12200</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1099</v>
+        <v>4200</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1299</v>
+        <v>3450</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1529</v>
+        <v>3300</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1899</v>
+        <v>1500</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>989</v>
+        <v>3100</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1999</v>
+        <v>900</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45764</v>
+        <v>45771</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1723</v>
+        <v>1250</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1990</v>
+        <v>800</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4565,15 +4565,15 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4583,15 +4583,15 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4601,15 +4601,15 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4619,15 +4619,15 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4637,15 +4637,15 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4655,15 +4655,15 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2205</v>
+        <v>1099</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4673,15 +4673,15 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4691,15 +4691,15 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4709,15 +4709,15 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4210</v>
+        <v>3082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4727,15 +4727,15 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>10489</v>
+        <v>2205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4745,15 +4745,15 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4763,15 +4763,15 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3190</v>
+        <v>2350</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4781,15 +4781,15 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>800</v>
+        <v>1723</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4799,15 +4799,15 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4817,15 +4817,15 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4835,15 +4835,15 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4853,15 +4853,15 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4871,15 +4871,15 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4889,15 +4889,15 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4907,15 +4907,15 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1990</v>
+        <v>800</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4925,15 +4925,15 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4943,15 +4943,15 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4961,15 +4961,15 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4979,15 +4979,15 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4997,15 +4997,15 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5015,15 +5015,15 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5033,15 +5033,15 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5051,15 +5051,15 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4476</v>
+        <v>2205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5069,15 +5069,15 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5087,15 +5087,15 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4210</v>
+        <v>999</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5105,15 +5105,15 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5123,15 +5123,15 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5141,15 +5141,15 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>800</v>
+        <v>1723</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5159,15 +5159,15 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5177,15 +5177,15 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1299</v>
+        <v>4210</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5195,15 +5195,15 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1899</v>
+        <v>4476</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5213,15 +5213,15 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1099</v>
+        <v>10489</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5231,15 +5231,15 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5249,15 +5249,15 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1990</v>
+        <v>1099</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5267,15 +5267,15 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>989</v>
+        <v>1299</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5285,15 +5285,15 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2390</v>
+        <v>800</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5303,15 +5303,15 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5321,15 +5321,15 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5339,15 +5339,15 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2205</v>
+        <v>989</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5357,15 +5357,15 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -5393,15 +5393,15 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4476</v>
+        <v>1990</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5411,15 +5411,15 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3159</v>
+        <v>999</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5429,15 +5429,15 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>4210</v>
+        <v>2699</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5447,15 +5447,15 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1580</v>
+        <v>2390</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5465,15 +5465,15 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5483,15 +5483,15 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1649</v>
+        <v>3082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5501,15 +5501,15 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5519,15 +5519,15 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5537,15 +5537,15 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1099</v>
+        <v>3159</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5555,15 +5555,15 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1529</v>
+        <v>4210</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5573,15 +5573,15 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5591,15 +5591,15 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5609,15 +5609,15 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5627,15 +5627,15 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5645,15 +5645,15 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>800</v>
+        <v>1899</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5663,15 +5663,15 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5681,15 +5681,15 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5699,15 +5699,15 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5717,15 +5717,15 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5735,15 +5735,15 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1723</v>
+        <v>2699</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5753,15 +5753,15 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5771,15 +5771,15 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5789,15 +5789,15 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5807,15 +5807,15 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5825,15 +5825,15 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4210</v>
+        <v>999</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5843,15 +5843,15 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5861,15 +5861,15 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1649</v>
+        <v>989</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5879,15 +5879,15 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5897,15 +5897,15 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5915,15 +5915,15 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>800</v>
+        <v>3159</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5933,15 +5933,15 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1529</v>
+        <v>4210</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5951,15 +5951,15 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5969,15 +5969,15 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5987,15 +5987,15 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6005,15 +6005,15 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6023,15 +6023,15 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -6059,15 +6059,15 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6077,15 +6077,15 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6113,15 +6113,15 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6131,15 +6131,15 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6149,15 +6149,15 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6167,15 +6167,15 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6185,15 +6185,15 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6203,15 +6203,15 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1723</v>
+        <v>2699</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6221,15 +6221,15 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1649</v>
+        <v>1723</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6257,15 +6257,15 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6275,15 +6275,15 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6293,15 +6293,15 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3159</v>
+        <v>1580</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6311,15 +6311,15 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1529</v>
+        <v>3082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6329,15 +6329,15 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1099</v>
+        <v>1649</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6347,15 +6347,15 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6365,15 +6365,15 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1990</v>
+        <v>3190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6401,15 +6401,15 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6419,15 +6419,15 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6437,15 +6437,15 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6455,15 +6455,15 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6473,15 +6473,15 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6491,15 +6491,15 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3082</v>
+        <v>800</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6509,15 +6509,15 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6527,15 +6527,15 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6545,15 +6545,15 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6563,15 +6563,15 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6581,15 +6581,15 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6599,15 +6599,15 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3190</v>
+        <v>2699</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6617,15 +6617,15 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1190</v>
+        <v>2205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6635,15 +6635,15 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6653,15 +6653,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6671,17 +6671,1637 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>800</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>989</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>999</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>45769</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>800</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>989</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B394" t="inlineStr">
         <is>
           <t>Vinagre</t>
         </is>
       </c>
-      <c r="C347" t="n">
+      <c r="C394" t="n">
         <v>1115</v>
       </c>
-      <c r="D347" t="inlineStr">
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>989</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>999</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>989</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>999</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D437" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D437"/>
+  <dimension ref="A1:D518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4547,151 +4547,151 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>800</v>
+        <v>2671</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1999</v>
+        <v>900</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>989</v>
+        <v>3300</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1299</v>
+        <v>1160</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1529</v>
+        <v>8497.5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1990</v>
+        <v>2300</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1099</v>
+        <v>1523</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>8290</v>
+        <v>1199</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -4699,17 +4699,17 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2699</v>
+        <v>2499</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4717,233 +4717,233 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3082</v>
+        <v>6376</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2205</v>
+        <v>4750</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>4476</v>
+        <v>2200</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2350</v>
+        <v>3450</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1723</v>
+        <v>4218</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3190</v>
+        <v>1850</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>10489</v>
+        <v>4200</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1115</v>
+        <v>1200</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45762</v>
+        <v>45772</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3159</v>
+        <v>3300</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1990</v>
+        <v>1500</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1999</v>
+        <v>1250</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45763</v>
+        <v>45772</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1099</v>
+        <v>12200</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4951,161 +4951,161 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>989</v>
+        <v>2300</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1899</v>
+        <v>1160</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2390</v>
+        <v>900</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>8290</v>
+        <v>2671</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>2205</v>
+        <v>3300</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2699</v>
+        <v>8497.5</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>999</v>
+        <v>2499</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5113,35 +5113,35 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3082</v>
+        <v>6376</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3159</v>
+        <v>4218</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -5149,223 +5149,223 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1723</v>
+        <v>1850</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1115</v>
+        <v>3450</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4210</v>
+        <v>4750</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4476</v>
+        <v>3300</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>10489</v>
+        <v>4200</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45763</v>
+        <v>45773</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3190</v>
+        <v>1500</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1099</v>
+        <v>12200</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1299</v>
+        <v>3100</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1529</v>
+        <v>2200</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1899</v>
+        <v>1250</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45764</v>
+        <v>45773</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>989</v>
+        <v>1200</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5375,15 +5375,15 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5393,15 +5393,15 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5411,15 +5411,15 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5429,15 +5429,15 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5447,15 +5447,15 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5465,15 +5465,15 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5483,15 +5483,15 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5501,15 +5501,15 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5519,15 +5519,15 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5537,15 +5537,15 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5555,15 +5555,15 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5573,15 +5573,15 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>10489</v>
+        <v>2350</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5591,15 +5591,15 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1115</v>
+        <v>1723</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -5627,15 +5627,15 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5645,15 +5645,15 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1899</v>
+        <v>1115</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5663,15 +5663,15 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5681,15 +5681,15 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1299</v>
+        <v>1990</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5699,15 +5699,15 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5717,15 +5717,15 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5735,15 +5735,15 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5753,15 +5753,15 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5771,15 +5771,15 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3082</v>
+        <v>1299</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5789,15 +5789,15 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5807,15 +5807,15 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5825,15 +5825,15 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5843,15 +5843,15 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5861,15 +5861,15 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>989</v>
+        <v>2205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5879,15 +5879,15 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1723</v>
+        <v>2699</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5897,15 +5897,15 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5915,15 +5915,15 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5933,15 +5933,15 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5951,15 +5951,15 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1115</v>
+        <v>1723</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5969,15 +5969,15 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5987,15 +5987,15 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>800</v>
+        <v>4210</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6005,15 +6005,15 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1529</v>
+        <v>4476</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6023,15 +6023,15 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1299</v>
+        <v>10489</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6041,15 +6041,15 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -6077,15 +6077,15 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1999</v>
+        <v>1299</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1990</v>
+        <v>800</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6113,15 +6113,15 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6131,15 +6131,15 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6149,15 +6149,15 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6167,15 +6167,15 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6185,15 +6185,15 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2205</v>
+        <v>1723</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6203,15 +6203,15 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6221,15 +6221,15 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6257,15 +6257,15 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6275,15 +6275,15 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4210</v>
+        <v>8290</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6293,15 +6293,15 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6311,15 +6311,15 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3082</v>
+        <v>2205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6329,15 +6329,15 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6347,15 +6347,15 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6365,15 +6365,15 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1099</v>
+        <v>10489</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6401,15 +6401,15 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6419,15 +6419,15 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6437,15 +6437,15 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6455,15 +6455,15 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6473,15 +6473,15 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6491,15 +6491,15 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>800</v>
+        <v>1299</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6509,15 +6509,15 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>999</v>
+        <v>1529</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6527,15 +6527,15 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6545,15 +6545,15 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6563,15 +6563,15 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6581,15 +6581,15 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6599,15 +6599,15 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6617,15 +6617,15 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6635,15 +6635,15 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6653,15 +6653,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6671,15 +6671,15 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6689,15 +6689,15 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1115</v>
+        <v>1723</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6707,15 +6707,15 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6725,15 +6725,15 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6743,15 +6743,15 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6761,15 +6761,15 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6797,15 +6797,15 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6815,15 +6815,15 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6833,15 +6833,15 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>989</v>
+        <v>1299</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6851,15 +6851,15 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1990</v>
+        <v>1899</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -6887,15 +6887,15 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6905,15 +6905,15 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6923,15 +6923,15 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6941,15 +6941,15 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6959,15 +6959,15 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6977,15 +6977,15 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>8290</v>
+        <v>999</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6995,15 +6995,15 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7013,15 +7013,15 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7031,15 +7031,15 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7049,15 +7049,15 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7067,15 +7067,15 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -7103,15 +7103,15 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7121,15 +7121,15 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7139,15 +7139,15 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3159</v>
+        <v>1649</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7157,15 +7157,15 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7175,15 +7175,15 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7193,15 +7193,15 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>800</v>
+        <v>1099</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7211,15 +7211,15 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7229,15 +7229,15 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1299</v>
+        <v>989</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7247,15 +7247,15 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>989</v>
+        <v>1299</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -7283,15 +7283,15 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7301,15 +7301,15 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2390</v>
+        <v>800</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7319,15 +7319,15 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7337,15 +7337,15 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7355,15 +7355,15 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7373,15 +7373,15 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7391,15 +7391,15 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7409,15 +7409,15 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7427,15 +7427,15 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>10489</v>
+        <v>2205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7445,15 +7445,15 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7463,15 +7463,15 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>1190</v>
+        <v>3159</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -7499,15 +7499,15 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1580</v>
+        <v>1115</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1115</v>
+        <v>1649</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7535,15 +7535,15 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7553,15 +7553,15 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1899</v>
+        <v>1580</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1990</v>
+        <v>800</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1999</v>
+        <v>1299</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7625,15 +7625,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7643,15 +7643,15 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1249</v>
+        <v>989</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7661,15 +7661,15 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7679,15 +7679,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7697,15 +7697,15 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7715,15 +7715,15 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7733,15 +7733,15 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -7769,15 +7769,15 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7787,15 +7787,15 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7805,15 +7805,15 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7823,15 +7823,15 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7841,15 +7841,15 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4210</v>
+        <v>1580</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7859,15 +7859,15 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7877,15 +7877,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1190</v>
+        <v>1649</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,15 +7895,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>989</v>
+        <v>3159</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3082</v>
+        <v>1299</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,15 +8057,15 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8075,15 +8075,15 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,15 +8111,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4476</v>
+        <v>10489</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>4210</v>
+        <v>3190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3190</v>
+        <v>1190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,17 +8291,1475 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>989</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>999</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>45771</v>
       </c>
-      <c r="B437" t="inlineStr">
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>989</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>999</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B482" t="inlineStr">
         <is>
           <t>Mayonesa</t>
         </is>
       </c>
-      <c r="C437" t="n">
+      <c r="C482" t="n">
         <v>1190</v>
       </c>
-      <c r="D437" t="inlineStr">
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>989</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>999</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>989</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>999</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D518" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D518"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5357,151 +5357,151 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1999</v>
+        <v>799</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>989</v>
+        <v>2671</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1299</v>
+        <v>1160</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1529</v>
+        <v>1199</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1990</v>
+        <v>1523</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1099</v>
+        <v>900</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>8290</v>
+        <v>3300</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -5509,277 +5509,277 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2699</v>
+        <v>2499</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3082</v>
+        <v>1850</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2205</v>
+        <v>4750</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4476</v>
+        <v>3450</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>2350</v>
+        <v>6376</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1723</v>
+        <v>8497.5</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3190</v>
+        <v>3300</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>10489</v>
+        <v>2200</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1115</v>
+        <v>4200</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45762</v>
+        <v>45774</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3159</v>
+        <v>1200</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45763</v>
+        <v>45774</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1990</v>
+        <v>1500</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45763</v>
+        <v>45774</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1999</v>
+        <v>3100</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45763</v>
+        <v>45774</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>800</v>
+        <v>4218</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45763</v>
+        <v>45774</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1099</v>
+        <v>1250</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45763</v>
+        <v>45774</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1529</v>
+        <v>12200</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5789,15 +5789,15 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5807,15 +5807,15 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5825,15 +5825,15 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5843,15 +5843,15 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5861,15 +5861,15 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5879,15 +5879,15 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5897,15 +5897,15 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5915,15 +5915,15 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5933,15 +5933,15 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5951,15 +5951,15 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5969,15 +5969,15 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5987,15 +5987,15 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6005,15 +6005,15 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6023,15 +6023,15 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6041,15 +6041,15 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6059,15 +6059,15 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6077,15 +6077,15 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6095,15 +6095,15 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6113,15 +6113,15 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6131,15 +6131,15 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6149,15 +6149,15 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6167,15 +6167,15 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6185,15 +6185,15 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6203,15 +6203,15 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6221,15 +6221,15 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6257,15 +6257,15 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6275,15 +6275,15 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6293,15 +6293,15 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6311,15 +6311,15 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6329,15 +6329,15 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -6365,15 +6365,15 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6401,15 +6401,15 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6419,15 +6419,15 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6437,15 +6437,15 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6455,15 +6455,15 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6473,15 +6473,15 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -6509,15 +6509,15 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6527,15 +6527,15 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6545,15 +6545,15 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6563,15 +6563,15 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6581,15 +6581,15 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6599,15 +6599,15 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6617,15 +6617,15 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -6653,15 +6653,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6671,15 +6671,15 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6689,15 +6689,15 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6707,15 +6707,15 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6725,15 +6725,15 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6743,15 +6743,15 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6761,15 +6761,15 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6797,15 +6797,15 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6815,15 +6815,15 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6833,15 +6833,15 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6851,15 +6851,15 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6869,15 +6869,15 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -6905,15 +6905,15 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6923,15 +6923,15 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6941,15 +6941,15 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6959,15 +6959,15 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6977,15 +6977,15 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6995,15 +6995,15 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7013,15 +7013,15 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7031,15 +7031,15 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7049,15 +7049,15 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7067,15 +7067,15 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7085,15 +7085,15 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7103,15 +7103,15 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7121,15 +7121,15 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7139,15 +7139,15 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7157,15 +7157,15 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7175,15 +7175,15 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7193,15 +7193,15 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7211,15 +7211,15 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7229,15 +7229,15 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -7265,15 +7265,15 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7283,15 +7283,15 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7301,15 +7301,15 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7319,15 +7319,15 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7337,15 +7337,15 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -7373,15 +7373,15 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7391,15 +7391,15 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7409,15 +7409,15 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7427,15 +7427,15 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7445,15 +7445,15 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7463,15 +7463,15 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7481,15 +7481,15 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7499,15 +7499,15 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7535,15 +7535,15 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7553,15 +7553,15 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7589,15 +7589,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7625,15 +7625,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -7661,15 +7661,15 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7679,15 +7679,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -7715,15 +7715,15 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7733,15 +7733,15 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7751,15 +7751,15 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7769,15 +7769,15 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7787,15 +7787,15 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7805,15 +7805,15 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7823,15 +7823,15 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7841,15 +7841,15 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7859,15 +7859,15 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7877,15 +7877,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -8075,15 +8075,15 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,15 +8111,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,15 +8183,15 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8309,15 +8309,15 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8471,15 +8471,15 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -8543,15 +8543,15 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8561,15 +8561,15 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,15 +8597,15 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,15 +8723,15 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8741,15 +8741,15 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,15 +8993,15 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,15 +9353,15 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,17 +9749,755 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
         <v>45773</v>
       </c>
-      <c r="B518" t="inlineStr">
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>989</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>999</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B541" t="inlineStr">
         <is>
           <t>Café</t>
         </is>
       </c>
-      <c r="C518" t="n">
+      <c r="C541" t="n">
         <v>10489</v>
       </c>
-      <c r="D518" t="inlineStr">
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>989</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>999</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D559" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D559"/>
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5771,429 +5771,429 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>800</v>
+        <v>1523</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1999</v>
+        <v>2671</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>989</v>
+        <v>1160</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1299</v>
+        <v>2300</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1529</v>
+        <v>900</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1990</v>
+        <v>1199</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1099</v>
+        <v>3300</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2699</v>
+        <v>6376</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3082</v>
+        <v>4750</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2205</v>
+        <v>1850</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4476</v>
+        <v>8497.5</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2350</v>
+        <v>3450</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1723</v>
+        <v>12200</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3190</v>
+        <v>2200</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>10489</v>
+        <v>3100</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1115</v>
+        <v>4200</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45762</v>
+        <v>45775</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>3159</v>
+        <v>4218</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1990</v>
+        <v>999</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1999</v>
+        <v>1200</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1099</v>
+        <v>1500</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45763</v>
+        <v>45775</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1529</v>
+        <v>1250</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6203,15 +6203,15 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6221,15 +6221,15 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6239,15 +6239,15 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6257,15 +6257,15 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6275,15 +6275,15 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6293,15 +6293,15 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6311,15 +6311,15 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6329,15 +6329,15 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6347,15 +6347,15 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6365,15 +6365,15 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6383,15 +6383,15 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6401,15 +6401,15 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6419,15 +6419,15 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6437,15 +6437,15 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6455,15 +6455,15 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6473,15 +6473,15 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6491,15 +6491,15 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6509,15 +6509,15 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6527,15 +6527,15 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6545,15 +6545,15 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6563,15 +6563,15 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6581,15 +6581,15 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6599,15 +6599,15 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6617,15 +6617,15 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6635,15 +6635,15 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6653,15 +6653,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6671,15 +6671,15 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6689,15 +6689,15 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6707,15 +6707,15 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6725,15 +6725,15 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6743,15 +6743,15 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6797,15 +6797,15 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6815,15 +6815,15 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6833,15 +6833,15 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6851,15 +6851,15 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6869,15 +6869,15 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6887,15 +6887,15 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -6923,15 +6923,15 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6941,15 +6941,15 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6959,15 +6959,15 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6977,15 +6977,15 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6995,15 +6995,15 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7013,15 +7013,15 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7031,15 +7031,15 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -7067,15 +7067,15 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7085,15 +7085,15 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7103,15 +7103,15 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7121,15 +7121,15 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7139,15 +7139,15 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7157,15 +7157,15 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7175,15 +7175,15 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7193,15 +7193,15 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7211,15 +7211,15 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7229,15 +7229,15 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7247,15 +7247,15 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7265,15 +7265,15 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7283,15 +7283,15 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -7319,15 +7319,15 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7337,15 +7337,15 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7355,15 +7355,15 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7373,15 +7373,15 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7391,15 +7391,15 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7409,15 +7409,15 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7427,15 +7427,15 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7445,15 +7445,15 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7463,15 +7463,15 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7481,15 +7481,15 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7499,15 +7499,15 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7535,15 +7535,15 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7553,15 +7553,15 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7589,15 +7589,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7625,15 +7625,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7643,15 +7643,15 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -7679,15 +7679,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7697,15 +7697,15 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7715,15 +7715,15 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7733,15 +7733,15 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7751,15 +7751,15 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -7787,15 +7787,15 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7805,15 +7805,15 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7823,15 +7823,15 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7841,15 +7841,15 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7859,15 +7859,15 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7877,15 +7877,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,15 +7895,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7913,15 +7913,15 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -8075,15 +8075,15 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,15 +8183,15 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,15 +8453,15 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,15 +8525,15 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8543,15 +8543,15 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8561,15 +8561,15 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,15 +8597,15 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,15 +8687,15 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,15 +8723,15 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,15 +8993,15 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,15 +9353,15 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1115</v>
+        <v>2699</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,17 +10487,755 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
         <v>45774</v>
       </c>
-      <c r="B559" t="inlineStr">
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>989</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>999</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B582" t="inlineStr">
         <is>
           <t>Café</t>
         </is>
       </c>
-      <c r="C559" t="n">
+      <c r="C582" t="n">
         <v>10489</v>
       </c>
-      <c r="D559" t="inlineStr">
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>989</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>999</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D600" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,79 +6185,79 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>800</v>
+        <v>1160</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1999</v>
+        <v>1199</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>989</v>
+        <v>3400</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1299</v>
+        <v>2671</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6265,349 +6265,349 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1990</v>
+        <v>2300</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>8290</v>
+        <v>1900</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2699</v>
+        <v>6376</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>3082</v>
+        <v>8497.5</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2205</v>
+        <v>4750</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2350</v>
+        <v>599</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1723</v>
+        <v>12200</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3190</v>
+        <v>4200</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>10489</v>
+        <v>3300</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1115</v>
+        <v>3100</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45762</v>
+        <v>45776</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3159</v>
+        <v>2300</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1990</v>
+        <v>3450</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1999</v>
+        <v>1500</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>800</v>
+        <v>4218</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1099</v>
+        <v>1250</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45763</v>
+        <v>45776</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1529</v>
+        <v>1200</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6617,15 +6617,15 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6635,15 +6635,15 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6653,15 +6653,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6671,15 +6671,15 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6689,15 +6689,15 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6707,15 +6707,15 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6725,15 +6725,15 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6743,15 +6743,15 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6761,15 +6761,15 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6779,15 +6779,15 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6797,15 +6797,15 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6815,15 +6815,15 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6833,15 +6833,15 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6851,15 +6851,15 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6869,15 +6869,15 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6887,15 +6887,15 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6905,15 +6905,15 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6923,15 +6923,15 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6941,15 +6941,15 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6959,15 +6959,15 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6977,15 +6977,15 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6995,15 +6995,15 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7013,15 +7013,15 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7031,15 +7031,15 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7049,15 +7049,15 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7067,15 +7067,15 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7085,15 +7085,15 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7103,15 +7103,15 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7121,15 +7121,15 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7139,15 +7139,15 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7157,15 +7157,15 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -7193,15 +7193,15 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7211,15 +7211,15 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7229,15 +7229,15 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7247,15 +7247,15 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7265,15 +7265,15 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7283,15 +7283,15 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7301,15 +7301,15 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -7337,15 +7337,15 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7355,15 +7355,15 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7373,15 +7373,15 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7391,15 +7391,15 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7409,15 +7409,15 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7427,15 +7427,15 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7445,15 +7445,15 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -7481,15 +7481,15 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7499,15 +7499,15 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7535,15 +7535,15 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7553,15 +7553,15 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7589,15 +7589,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7625,15 +7625,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7643,15 +7643,15 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7661,15 +7661,15 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7679,15 +7679,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7697,15 +7697,15 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -7733,15 +7733,15 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7751,15 +7751,15 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7769,15 +7769,15 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7787,15 +7787,15 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7805,15 +7805,15 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7823,15 +7823,15 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7841,15 +7841,15 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7859,15 +7859,15 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7877,15 +7877,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,15 +7895,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7913,15 +7913,15 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,15 +8057,15 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,15 +8111,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8309,15 +8309,15 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8327,15 +8327,15 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,15 +8453,15 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -8543,15 +8543,15 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8561,15 +8561,15 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,15 +8597,15 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,15 +8687,15 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,15 +8993,15 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,15 +9101,15 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,15 +10559,15 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,15 +10631,15 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1115</v>
+        <v>2699</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,15 +10919,15 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1999</v>
+        <v>1723</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3082</v>
+        <v>10489</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,15 +11081,15 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>10489</v>
+        <v>999</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,17 +11225,719 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
         <v>45775</v>
       </c>
-      <c r="B600" t="inlineStr">
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>989</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>999</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B623" t="inlineStr">
         <is>
           <t>Yerba</t>
         </is>
       </c>
-      <c r="C600" t="n">
+      <c r="C623" t="n">
         <v>3190</v>
       </c>
-      <c r="D600" t="inlineStr">
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>989</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D639" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D639"/>
+  <dimension ref="A1:D726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -6607,17 +6607,17 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -6625,35 +6625,35 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1999</v>
+        <v>2300</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>989</v>
+        <v>1199</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -6661,17 +6661,17 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -6679,799 +6679,799 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>1990</v>
+        <v>599</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1099</v>
+        <v>3400</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>8290</v>
+        <v>2671</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2699</v>
+        <v>3450</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>3082</v>
+        <v>1160</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2205</v>
+        <v>8497.5</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4476</v>
+        <v>6376</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2350</v>
+        <v>4750</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3190</v>
+        <v>1900</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>10489</v>
+        <v>1500</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1115</v>
+        <v>1200</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45762</v>
+        <v>45777</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>3159</v>
+        <v>1250</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>1990</v>
+        <v>2300</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>1999</v>
+        <v>3100</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>1099</v>
+        <v>4218</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1529</v>
+        <v>4200</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45763</v>
+        <v>45777</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1299</v>
+        <v>12200</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>989</v>
+        <v>1160</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>1899</v>
+        <v>2671</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2390</v>
+        <v>2300</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>8290</v>
+        <v>999</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2205</v>
+        <v>900</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2699</v>
+        <v>1523</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>999</v>
+        <v>6376</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3082</v>
+        <v>3400</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3159</v>
+        <v>599</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1723</v>
+        <v>8497.5</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>1115</v>
+        <v>4750</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4210</v>
+        <v>1199</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4476</v>
+        <v>1999</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>10489</v>
+        <v>3450</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45763</v>
+        <v>45778</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3190</v>
+        <v>1900</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>1099</v>
+        <v>4200</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1299</v>
+        <v>2300</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>800</v>
+        <v>4218</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1529</v>
+        <v>3300</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1899</v>
+        <v>1500</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>989</v>
+        <v>1200</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1999</v>
+        <v>3100</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1723</v>
+        <v>1250</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>1990</v>
+        <v>12200</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7481,15 +7481,15 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7499,15 +7499,15 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7517,15 +7517,15 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7535,15 +7535,15 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3082</v>
+        <v>1529</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7553,15 +7553,15 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7571,15 +7571,15 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>4476</v>
+        <v>1099</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7589,15 +7589,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7607,15 +7607,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>4210</v>
+        <v>2699</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7625,15 +7625,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>10489</v>
+        <v>3082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7643,15 +7643,15 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7661,15 +7661,15 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7679,15 +7679,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>800</v>
+        <v>2350</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7697,15 +7697,15 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1899</v>
+        <v>1723</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7715,15 +7715,15 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7733,15 +7733,15 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>1299</v>
+        <v>10489</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7751,15 +7751,15 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7769,15 +7769,15 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45765</v>
+        <v>45762</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>1099</v>
+        <v>3159</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7787,15 +7787,15 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7805,15 +7805,15 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7823,15 +7823,15 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3082</v>
+        <v>800</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7841,15 +7841,15 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7859,15 +7859,15 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7877,15 +7877,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,15 +7895,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2205</v>
+        <v>989</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7913,15 +7913,15 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>989</v>
+        <v>1899</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4210</v>
+        <v>2699</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>800</v>
+        <v>3159</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,15 +8057,15 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1529</v>
+        <v>1723</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8075,15 +8075,15 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1899</v>
+        <v>4210</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,15 +8111,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1099</v>
+        <v>4476</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45766</v>
+        <v>45763</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>1990</v>
+        <v>3190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,15 +8183,15 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>8290</v>
+        <v>800</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>999</v>
+        <v>1529</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8309,15 +8309,15 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3159</v>
+        <v>1990</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8327,15 +8327,15 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>4210</v>
+        <v>999</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1649</v>
+        <v>8290</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3190</v>
+        <v>2205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>1099</v>
+        <v>4476</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,15 +8453,15 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8471,15 +8471,15 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>989</v>
+        <v>4210</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1299</v>
+        <v>10489</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,15 +8525,15 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45767</v>
+        <v>45764</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -8561,15 +8561,15 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,15 +8597,15 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3082</v>
+        <v>1529</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1723</v>
+        <v>1099</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,15 +8687,15 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,15 +8723,15 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>4210</v>
+        <v>2390</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8741,15 +8741,15 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1649</v>
+        <v>2205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3190</v>
+        <v>989</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>800</v>
+        <v>4476</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1299</v>
+        <v>4210</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45768</v>
+        <v>45765</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1990</v>
+        <v>800</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1899</v>
+        <v>1299</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,15 +8993,15 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2205</v>
+        <v>1999</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,15 +9101,15 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1649</v>
+        <v>2699</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3159</v>
+        <v>4210</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1099</v>
+        <v>3082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>800</v>
+        <v>1649</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1990</v>
+        <v>1115</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45769</v>
+        <v>45766</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,15 +9353,15 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2205</v>
+        <v>1999</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1723</v>
+        <v>800</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>10489</v>
+        <v>3082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>989</v>
+        <v>4210</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1899</v>
+        <v>1115</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1990</v>
+        <v>1649</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45770</v>
+        <v>45767</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1999</v>
+        <v>1580</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1249</v>
+        <v>1529</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3082</v>
+        <v>1299</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1723</v>
+        <v>1099</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>4210</v>
+        <v>8290</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>10489</v>
+        <v>2699</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1115</v>
+        <v>1723</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1249</v>
+        <v>1649</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>989</v>
+        <v>4210</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45771</v>
+        <v>45768</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1723</v>
+        <v>1990</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2205</v>
+        <v>989</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1580</v>
+        <v>2390</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1190</v>
+        <v>10489</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1999</v>
+        <v>1190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>989</v>
+        <v>4210</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1899</v>
+        <v>1580</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45772</v>
+        <v>45769</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>2390</v>
+        <v>1115</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>1249</v>
+        <v>989</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>999</v>
+        <v>1529</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1723</v>
+        <v>1099</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,15 +10559,15 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4476</v>
+        <v>1249</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>10489</v>
+        <v>2699</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,15 +10631,15 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1115</v>
+        <v>2390</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3190</v>
+        <v>2205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1529</v>
+        <v>999</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1249</v>
+        <v>3159</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1999</v>
+        <v>1580</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1899</v>
+        <v>4210</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>8290</v>
+        <v>10489</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2699</v>
+        <v>1190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45773</v>
+        <v>45770</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3082</v>
+        <v>1115</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3159</v>
+        <v>989</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1580</v>
+        <v>1999</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,15 +10919,15 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1115</v>
+        <v>1529</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1723</v>
+        <v>1099</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1899</v>
+        <v>2390</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1999</v>
+        <v>2205</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1249</v>
+        <v>8290</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>989</v>
+        <v>3159</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,15 +11081,15 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2699</v>
+        <v>1115</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3082</v>
+        <v>10489</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>8290</v>
+        <v>4476</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>4476</v>
+        <v>4210</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>999</v>
+        <v>3190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45774</v>
+        <v>45771</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>1115</v>
+        <v>1190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>3159</v>
+        <v>1999</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1580</v>
+        <v>989</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,15 +11279,15 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3190</v>
+        <v>1899</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1190</v>
+        <v>2390</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11315,15 +11315,15 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>10489</v>
+        <v>1249</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1249</v>
+        <v>2699</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1999</v>
+        <v>8290</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1529</v>
+        <v>3082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,15 +11405,15 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3082</v>
+        <v>1723</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2699</v>
+        <v>4476</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,15 +11441,15 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1899</v>
+        <v>1580</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>999</v>
+        <v>3159</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8290</v>
+        <v>10489</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,15 +11495,15 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1723</v>
+        <v>1115</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11513,15 +11513,15 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>4476</v>
+        <v>1190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45775</v>
+        <v>45772</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1580</v>
+        <v>1529</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3159</v>
+        <v>989</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1115</v>
+        <v>1249</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>10489</v>
+        <v>1999</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,15 +11621,15 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1190</v>
+        <v>1899</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>3190</v>
+        <v>8290</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1529</v>
+        <v>2699</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1249</v>
+        <v>2390</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,15 +11693,15 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>989</v>
+        <v>3082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11711,15 +11711,15 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>1999</v>
+        <v>999</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>2390</v>
+        <v>3159</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,15 +11747,15 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2699</v>
+        <v>1580</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>8290</v>
+        <v>4476</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3082</v>
+        <v>1115</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>4476</v>
+        <v>3190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,15 +11837,15 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>3159</v>
+        <v>1190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,15 +11855,15 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45776</v>
+        <v>45773</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1580</v>
+        <v>10489</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1115</v>
+        <v>1899</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1190</v>
+        <v>1999</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,15 +11909,15 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>3190</v>
+        <v>1249</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11927,17 +11927,1583 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>989</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>999</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>989</v>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>999</v>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
         <v>45776</v>
       </c>
-      <c r="B639" t="inlineStr">
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>989</v>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B687" t="inlineStr">
         <is>
           <t>Café</t>
         </is>
       </c>
-      <c r="C639" t="n">
+      <c r="C687" t="n">
         <v>10489</v>
       </c>
-      <c r="D639" t="inlineStr">
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>989</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>989</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>800</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D726" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D726"/>
+  <dimension ref="A1:D769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7463,133 +7463,133 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>1999</v>
+        <v>3400</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>989</v>
+        <v>1160</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>1299</v>
+        <v>2671</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>1529</v>
+        <v>900</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1990</v>
+        <v>1523</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -7597,295 +7597,295 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>8290</v>
+        <v>8497.5</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2699</v>
+        <v>6376</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3082</v>
+        <v>1900</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2205</v>
+        <v>599</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4476</v>
+        <v>4218</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2350</v>
+        <v>4200</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1723</v>
+        <v>1999</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3190</v>
+        <v>2300</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>10489</v>
+        <v>3450</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1115</v>
+        <v>3300</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45762</v>
+        <v>45779</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3159</v>
+        <v>1500</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45763</v>
+        <v>45779</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>1990</v>
+        <v>1200</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45763</v>
+        <v>45779</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1999</v>
+        <v>1250</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45763</v>
+        <v>45779</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>800</v>
+        <v>12200</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45763</v>
+        <v>45779</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1099</v>
+        <v>4750</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45763</v>
+        <v>45779</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1529</v>
+        <v>3100</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7895,15 +7895,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7913,15 +7913,15 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7931,15 +7931,15 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7949,15 +7949,15 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7967,15 +7967,15 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7985,15 +7985,15 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8003,15 +8003,15 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8021,15 +8021,15 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8039,15 +8039,15 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8057,15 +8057,15 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8075,15 +8075,15 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8093,15 +8093,15 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8111,15 +8111,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8129,15 +8129,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8147,15 +8147,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8165,15 +8165,15 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8183,15 +8183,15 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8201,15 +8201,15 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8219,15 +8219,15 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8237,15 +8237,15 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8255,15 +8255,15 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8273,15 +8273,15 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8291,15 +8291,15 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8309,15 +8309,15 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8327,15 +8327,15 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -8471,15 +8471,15 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,15 +8525,15 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8543,15 +8543,15 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8561,15 +8561,15 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,15 +8687,15 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,15 +8723,15 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,15 +9101,15 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,15 +11081,15 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,15 +11279,15 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11315,15 +11315,15 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,15 +11441,15 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,15 +11495,15 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11513,15 +11513,15 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,15 +11621,15 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,15 +11693,15 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11711,15 +11711,15 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,15 +11747,15 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,15 +11801,15 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,15 +11837,15 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,15 +11855,15 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,15 +11909,15 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11927,15 +11927,15 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11945,15 +11945,15 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11963,15 +11963,15 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11981,15 +11981,15 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11999,15 +11999,15 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12017,15 +12017,15 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12035,15 +12035,15 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12053,15 +12053,15 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12071,15 +12071,15 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1115</v>
+        <v>2699</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12089,15 +12089,15 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12107,15 +12107,15 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12125,15 +12125,15 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12143,15 +12143,15 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12161,15 +12161,15 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12179,15 +12179,15 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12197,15 +12197,15 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12215,15 +12215,15 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1999</v>
+        <v>1723</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12233,15 +12233,15 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12251,15 +12251,15 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12269,15 +12269,15 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>3082</v>
+        <v>10489</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12287,15 +12287,15 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12305,15 +12305,15 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12323,15 +12323,15 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12341,15 +12341,15 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12359,15 +12359,15 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12377,15 +12377,15 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12395,15 +12395,15 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12413,15 +12413,15 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12431,15 +12431,15 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12449,15 +12449,15 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12467,15 +12467,15 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>10489</v>
+        <v>999</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12485,15 +12485,15 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12503,15 +12503,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12521,15 +12521,15 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12539,15 +12539,15 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1249</v>
+        <v>1580</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12557,15 +12557,15 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12575,15 +12575,15 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1999</v>
+        <v>1190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12593,15 +12593,15 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>2390</v>
+        <v>10489</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12611,15 +12611,15 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12629,15 +12629,15 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12683,15 +12683,15 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12701,15 +12701,15 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12719,15 +12719,15 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1580</v>
+        <v>1899</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12737,15 +12737,15 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12755,15 +12755,15 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1190</v>
+        <v>8290</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12773,15 +12773,15 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12791,15 +12791,15 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12809,15 +12809,15 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>1899</v>
+        <v>2390</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12827,15 +12827,15 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12845,15 +12845,15 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12863,15 +12863,15 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12881,15 +12881,15 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>1990</v>
+        <v>10489</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12899,15 +12899,15 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12917,15 +12917,15 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>2205</v>
+        <v>3190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12935,15 +12935,15 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12953,15 +12953,15 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1766</v>
+        <v>1999</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13007,15 +13007,15 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13025,15 +13025,15 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13043,15 +13043,15 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13061,15 +13061,15 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13079,15 +13079,15 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13097,15 +13097,15 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13115,15 +13115,15 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13133,15 +13133,15 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13151,15 +13151,15 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13169,15 +13169,15 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13187,15 +13187,15 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13205,15 +13205,15 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13223,15 +13223,15 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13241,15 +13241,15 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1899</v>
+        <v>1529</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13277,15 +13277,15 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>2390</v>
+        <v>1249</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13295,15 +13295,15 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13313,15 +13313,15 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
@@ -13349,15 +13349,15 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13367,15 +13367,15 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1766</v>
+        <v>2699</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13403,15 +13403,15 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>3159</v>
+        <v>1766</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13421,15 +13421,15 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13439,15 +13439,15 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13457,15 +13457,15 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13475,15 +13475,15 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13493,17 +13493,791 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
         <v>45778</v>
       </c>
-      <c r="B726" t="inlineStr">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>989</v>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>800</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B749" t="inlineStr">
         <is>
           <t>Mayonesa</t>
         </is>
       </c>
-      <c r="C726" t="n">
+      <c r="C749" t="n">
         <v>1049</v>
       </c>
-      <c r="D726" t="inlineStr">
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>800</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>989</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D769" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D769"/>
+  <dimension ref="A1:D813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7877,447 +7877,447 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1999</v>
+        <v>1523</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>989</v>
+        <v>1160</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1299</v>
+        <v>900</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>1529</v>
+        <v>799</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>1990</v>
+        <v>3400</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1099</v>
+        <v>2671</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>8290</v>
+        <v>6376</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>2699</v>
+        <v>1199</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3082</v>
+        <v>599</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2205</v>
+        <v>1900</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>4476</v>
+        <v>1999</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2350</v>
+        <v>3450</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1723</v>
+        <v>8497.5</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3190</v>
+        <v>4218</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>10489</v>
+        <v>4750</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>1115</v>
+        <v>2300</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45762</v>
+        <v>45780</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3159</v>
+        <v>3300</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>1990</v>
+        <v>1200</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1999</v>
+        <v>12200</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1099</v>
+        <v>1500</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1529</v>
+        <v>4200</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45763</v>
+        <v>45780</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8327,15 +8327,15 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8345,15 +8345,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8363,15 +8363,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8381,15 +8381,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2205</v>
+        <v>1529</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8399,15 +8399,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8417,15 +8417,15 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8435,15 +8435,15 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8453,15 +8453,15 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8471,15 +8471,15 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8489,15 +8489,15 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8507,15 +8507,15 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8525,15 +8525,15 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>4476</v>
+        <v>2350</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8543,15 +8543,15 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -8579,15 +8579,15 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1099</v>
+        <v>10489</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8597,15 +8597,15 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8615,15 +8615,15 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>800</v>
+        <v>3159</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8633,15 +8633,15 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8651,15 +8651,15 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8669,15 +8669,15 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8687,15 +8687,15 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8705,15 +8705,15 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8723,15 +8723,15 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8741,15 +8741,15 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3082</v>
+        <v>2205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>800</v>
+        <v>4476</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1899</v>
+        <v>10489</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,15 +8993,15 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1529</v>
+        <v>1299</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1990</v>
+        <v>1899</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,15 +9101,15 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2390</v>
+        <v>1723</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>989</v>
+        <v>2699</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>800</v>
+        <v>4210</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,15 +9353,15 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>989</v>
+        <v>1299</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>999</v>
+        <v>2699</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3159</v>
+        <v>999</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1580</v>
+        <v>989</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3082</v>
+        <v>1723</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1299</v>
+        <v>1529</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1999</v>
+        <v>1299</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>800</v>
+        <v>1099</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1649</v>
+        <v>4210</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>800</v>
+        <v>1649</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>2390</v>
+        <v>800</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3159</v>
+        <v>1649</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1099</v>
+        <v>1580</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,15 +10631,15 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>10489</v>
+        <v>2699</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1990</v>
+        <v>3159</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1249</v>
+        <v>1990</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3082</v>
+        <v>1299</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>1190</v>
+        <v>3190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>3190</v>
+        <v>1190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1249</v>
+        <v>1580</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,15 +11279,15 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,15 +11405,15 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1723</v>
+        <v>1249</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2390</v>
+        <v>3082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,15 +11441,15 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,15 +11495,15 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11513,15 +11513,15 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4476</v>
+        <v>3159</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>4210</v>
+        <v>1580</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,15 +11621,15 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1190</v>
+        <v>10489</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,15 +11693,15 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1899</v>
+        <v>1249</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11711,15 +11711,15 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1249</v>
+        <v>1999</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,15 +11747,15 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,15 +11837,15 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,15 +11855,15 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1580</v>
+        <v>2390</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>10489</v>
+        <v>8290</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,15 +11909,15 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11927,15 +11927,15 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11945,15 +11945,15 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>3190</v>
+        <v>2699</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11963,15 +11963,15 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11981,15 +11981,15 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11999,15 +11999,15 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>1249</v>
+        <v>4476</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12017,15 +12017,15 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1999</v>
+        <v>4210</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12035,15 +12035,15 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12053,15 +12053,15 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>8290</v>
+        <v>1190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12071,15 +12071,15 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12089,15 +12089,15 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12107,15 +12107,15 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12125,15 +12125,15 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12143,15 +12143,15 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12161,15 +12161,15 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1580</v>
+        <v>1249</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12179,15 +12179,15 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12197,15 +12197,15 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12215,15 +12215,15 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12233,15 +12233,15 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12251,15 +12251,15 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12269,15 +12269,15 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12287,15 +12287,15 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1899</v>
+        <v>1580</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12305,15 +12305,15 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12323,15 +12323,15 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12341,15 +12341,15 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12359,15 +12359,15 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12377,15 +12377,15 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12395,15 +12395,15 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12413,15 +12413,15 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12431,15 +12431,15 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12449,15 +12449,15 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>4476</v>
+        <v>1999</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12467,15 +12467,15 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12485,15 +12485,15 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12503,15 +12503,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1723</v>
+        <v>2699</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12521,15 +12521,15 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12539,15 +12539,15 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12557,15 +12557,15 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3190</v>
+        <v>999</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12575,15 +12575,15 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1190</v>
+        <v>3159</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12593,15 +12593,15 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12611,15 +12611,15 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>1249</v>
+        <v>4476</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12629,15 +12629,15 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>989</v>
+        <v>1723</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12683,15 +12683,15 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3082</v>
+        <v>1190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12701,15 +12701,15 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2699</v>
+        <v>10489</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -12737,15 +12737,15 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12755,15 +12755,15 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12773,15 +12773,15 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1723</v>
+        <v>989</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12791,15 +12791,15 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>4476</v>
+        <v>1529</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -12827,15 +12827,15 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12845,15 +12845,15 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12863,15 +12863,15 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12881,15 +12881,15 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12899,15 +12899,15 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12917,15 +12917,15 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12935,15 +12935,15 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1529</v>
+        <v>1723</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12953,15 +12953,15 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>1249</v>
+        <v>3159</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13007,15 +13007,15 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2390</v>
+        <v>1190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13025,15 +13025,15 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>2699</v>
+        <v>10489</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13043,15 +13043,15 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13061,15 +13061,15 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13079,15 +13079,15 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1723</v>
+        <v>989</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13097,15 +13097,15 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>4476</v>
+        <v>1529</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13115,15 +13115,15 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13133,15 +13133,15 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13151,15 +13151,15 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>1115</v>
+        <v>1899</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13169,15 +13169,15 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13187,15 +13187,15 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>3190</v>
+        <v>8290</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13205,15 +13205,15 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13223,15 +13223,15 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1899</v>
+        <v>4476</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13241,15 +13241,15 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1529</v>
+        <v>2390</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1999</v>
+        <v>1580</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13277,15 +13277,15 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1249</v>
+        <v>3159</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13295,15 +13295,15 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1990</v>
+        <v>1115</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13313,15 +13313,15 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13331,15 +13331,15 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>2205</v>
+        <v>1190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13349,15 +13349,15 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13367,15 +13367,15 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13403,15 +13403,15 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1766</v>
+        <v>989</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13421,15 +13421,15 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13439,15 +13439,15 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13457,15 +13457,15 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13475,15 +13475,15 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13493,15 +13493,15 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13511,15 +13511,15 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13529,15 +13529,15 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13547,15 +13547,15 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1049</v>
+        <v>3159</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13565,15 +13565,15 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13583,15 +13583,15 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13601,15 +13601,15 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1249</v>
+        <v>1190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13619,15 +13619,15 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>800</v>
+        <v>3190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13637,15 +13637,15 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -13673,15 +13673,15 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13691,15 +13691,15 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13709,15 +13709,15 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13727,15 +13727,15 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13745,15 +13745,15 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>2205</v>
+        <v>989</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13763,15 +13763,15 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13781,15 +13781,15 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1766</v>
+        <v>2390</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13799,15 +13799,15 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13817,15 +13817,15 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13835,15 +13835,15 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1115</v>
+        <v>1766</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13853,15 +13853,15 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13871,15 +13871,15 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13889,15 +13889,15 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13907,15 +13907,15 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>1049</v>
+        <v>1115</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13925,15 +13925,15 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1990</v>
+        <v>3159</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13943,15 +13943,15 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13961,15 +13961,15 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13979,15 +13979,15 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>1999</v>
+        <v>1049</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13997,15 +13997,15 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14015,15 +14015,15 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14033,15 +14033,15 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14051,15 +14051,15 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14069,15 +14069,15 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14087,15 +14087,15 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14105,15 +14105,15 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14123,15 +14123,15 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1766</v>
+        <v>2390</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14141,15 +14141,15 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14159,15 +14159,15 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14177,15 +14177,15 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14195,15 +14195,15 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14213,15 +14213,15 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1580</v>
+        <v>1766</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14231,15 +14231,15 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14249,15 +14249,15 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>2939</v>
+        <v>3159</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14267,17 +14267,809 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>3190</v>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
         <v>45779</v>
       </c>
-      <c r="B769" t="inlineStr">
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>800</v>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>989</v>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B793" t="inlineStr">
         <is>
           <t>Mayonesa</t>
         </is>
       </c>
-      <c r="C769" t="n">
+      <c r="C793" t="n">
         <v>1049</v>
       </c>
-      <c r="D769" t="inlineStr">
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>989</v>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>800</v>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D813" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D813"/>
+  <dimension ref="A1:D856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8309,447 +8309,447 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>800</v>
+        <v>1523</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1999</v>
+        <v>799</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1299</v>
+        <v>1199</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>1529</v>
+        <v>2671</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1990</v>
+        <v>2300</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1099</v>
+        <v>900</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>8290</v>
+        <v>599</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2699</v>
+        <v>3400</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3082</v>
+        <v>1160</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>2205</v>
+        <v>2300</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>4476</v>
+        <v>4218</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2350</v>
+        <v>8497.5</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1723</v>
+        <v>6376</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3190</v>
+        <v>1900</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>10489</v>
+        <v>3450</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>1115</v>
+        <v>4750</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3159</v>
+        <v>3300</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1990</v>
+        <v>4200</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>1999</v>
+        <v>12200</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1099</v>
+        <v>1500</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1529</v>
+        <v>1250</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45763</v>
+        <v>45781</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1299</v>
+        <v>3100</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8759,15 +8759,15 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8777,15 +8777,15 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8795,15 +8795,15 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>8290</v>
+        <v>1299</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8813,15 +8813,15 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>2205</v>
+        <v>1529</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8831,15 +8831,15 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8849,15 +8849,15 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8867,15 +8867,15 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8885,15 +8885,15 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8903,15 +8903,15 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8921,15 +8921,15 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8939,15 +8939,15 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8957,15 +8957,15 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>4476</v>
+        <v>2350</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8975,15 +8975,15 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -9011,15 +9011,15 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1099</v>
+        <v>10489</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9029,15 +9029,15 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9047,15 +9047,15 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>800</v>
+        <v>3159</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9065,15 +9065,15 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9083,15 +9083,15 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9101,15 +9101,15 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9119,15 +9119,15 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9137,15 +9137,15 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9155,15 +9155,15 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3082</v>
+        <v>2205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>800</v>
+        <v>4476</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1899</v>
+        <v>10489</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1529</v>
+        <v>1299</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1990</v>
+        <v>1899</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>2390</v>
+        <v>1723</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>989</v>
+        <v>2699</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>800</v>
+        <v>4210</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>989</v>
+        <v>1299</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>999</v>
+        <v>2699</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3159</v>
+        <v>999</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>4210</v>
+        <v>2205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1580</v>
+        <v>989</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3082</v>
+        <v>1723</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>989</v>
+        <v>800</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1299</v>
+        <v>1529</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1999</v>
+        <v>1299</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>800</v>
+        <v>1099</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>1649</v>
+        <v>4210</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>800</v>
+        <v>1649</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,15 +10559,15 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,15 +10631,15 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2390</v>
+        <v>800</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3159</v>
+        <v>1649</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,15 +10919,15 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1099</v>
+        <v>1580</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,15 +11081,15 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>2205</v>
+        <v>1899</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>10489</v>
+        <v>2699</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,15 +11279,15 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11315,15 +11315,15 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1990</v>
+        <v>3159</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,15 +11405,15 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1249</v>
+        <v>1990</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>3082</v>
+        <v>1299</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,15 +11441,15 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,15 +11495,15 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1190</v>
+        <v>3190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3190</v>
+        <v>1190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,15 +11693,15 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1249</v>
+        <v>1580</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11711,15 +11711,15 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C627" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,15 +11801,15 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,15 +11837,15 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1723</v>
+        <v>1249</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,15 +11855,15 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>2390</v>
+        <v>3082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,15 +11909,15 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11927,15 +11927,15 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11945,15 +11945,15 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11963,15 +11963,15 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11981,15 +11981,15 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11999,15 +11999,15 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>4476</v>
+        <v>3159</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12017,15 +12017,15 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>4210</v>
+        <v>1580</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12035,15 +12035,15 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12053,15 +12053,15 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1190</v>
+        <v>10489</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12071,15 +12071,15 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12089,15 +12089,15 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12107,15 +12107,15 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12125,15 +12125,15 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1899</v>
+        <v>1249</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12143,15 +12143,15 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12161,15 +12161,15 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1249</v>
+        <v>1999</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12179,15 +12179,15 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12197,15 +12197,15 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12215,15 +12215,15 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -12251,15 +12251,15 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12269,15 +12269,15 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12287,15 +12287,15 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1580</v>
+        <v>2390</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12305,15 +12305,15 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12323,15 +12323,15 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>10489</v>
+        <v>8290</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12341,15 +12341,15 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12359,15 +12359,15 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12377,15 +12377,15 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>3190</v>
+        <v>2699</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12395,15 +12395,15 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12413,15 +12413,15 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12431,15 +12431,15 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1249</v>
+        <v>4476</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12449,15 +12449,15 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1999</v>
+        <v>4210</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12467,15 +12467,15 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12485,15 +12485,15 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C670" t="n">
-        <v>8290</v>
+        <v>1190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12503,15 +12503,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12521,15 +12521,15 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12539,15 +12539,15 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12557,15 +12557,15 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12575,15 +12575,15 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12593,15 +12593,15 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1580</v>
+        <v>1249</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12611,15 +12611,15 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12629,15 +12629,15 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12683,15 +12683,15 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12701,15 +12701,15 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12719,15 +12719,15 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1899</v>
+        <v>1580</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12737,15 +12737,15 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12755,15 +12755,15 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12773,15 +12773,15 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12791,15 +12791,15 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12809,15 +12809,15 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12827,15 +12827,15 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12845,15 +12845,15 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12863,15 +12863,15 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12881,15 +12881,15 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>4476</v>
+        <v>1999</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12899,15 +12899,15 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12917,15 +12917,15 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12935,15 +12935,15 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1723</v>
+        <v>2699</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12953,15 +12953,15 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3190</v>
+        <v>999</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13007,15 +13007,15 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1190</v>
+        <v>3159</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13025,15 +13025,15 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13043,15 +13043,15 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1249</v>
+        <v>4476</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13061,15 +13061,15 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13079,15 +13079,15 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>989</v>
+        <v>1723</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13097,15 +13097,15 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13115,15 +13115,15 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3082</v>
+        <v>1190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13133,15 +13133,15 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2699</v>
+        <v>10489</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
@@ -13169,15 +13169,15 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13187,15 +13187,15 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13205,15 +13205,15 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>1723</v>
+        <v>989</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13223,15 +13223,15 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4476</v>
+        <v>1529</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13277,15 +13277,15 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13295,15 +13295,15 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13313,15 +13313,15 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13331,15 +13331,15 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13349,15 +13349,15 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13367,15 +13367,15 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1529</v>
+        <v>1723</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1249</v>
+        <v>3159</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13403,15 +13403,15 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13421,15 +13421,15 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13439,15 +13439,15 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>2390</v>
+        <v>1190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13457,15 +13457,15 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2699</v>
+        <v>10489</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13475,15 +13475,15 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13493,15 +13493,15 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13511,15 +13511,15 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>1723</v>
+        <v>989</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13529,15 +13529,15 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>4476</v>
+        <v>1529</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13547,15 +13547,15 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13565,15 +13565,15 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13583,15 +13583,15 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1115</v>
+        <v>1899</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13601,15 +13601,15 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13619,15 +13619,15 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>3190</v>
+        <v>8290</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13637,15 +13637,15 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>10489</v>
+        <v>1723</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13655,15 +13655,15 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1899</v>
+        <v>4476</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13673,15 +13673,15 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1529</v>
+        <v>2390</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13691,15 +13691,15 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>1999</v>
+        <v>1580</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13709,15 +13709,15 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1249</v>
+        <v>3159</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13727,15 +13727,15 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1990</v>
+        <v>1115</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13745,15 +13745,15 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13763,15 +13763,15 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>2205</v>
+        <v>1190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13781,15 +13781,15 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2390</v>
+        <v>3190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13799,15 +13799,15 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13817,15 +13817,15 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>8290</v>
+        <v>1249</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13835,15 +13835,15 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1766</v>
+        <v>989</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13853,15 +13853,15 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13871,15 +13871,15 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13889,15 +13889,15 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13907,15 +13907,15 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13925,15 +13925,15 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13943,15 +13943,15 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13961,15 +13961,15 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13979,15 +13979,15 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>1049</v>
+        <v>3159</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13997,15 +13997,15 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14015,15 +14015,15 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14033,15 +14033,15 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>1249</v>
+        <v>1190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14051,15 +14051,15 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>800</v>
+        <v>3190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14069,15 +14069,15 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
@@ -14105,15 +14105,15 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14123,15 +14123,15 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14141,15 +14141,15 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14159,15 +14159,15 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>3082</v>
+        <v>1990</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14177,15 +14177,15 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>2205</v>
+        <v>989</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14195,15 +14195,15 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14213,15 +14213,15 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1766</v>
+        <v>2390</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14231,15 +14231,15 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14249,15 +14249,15 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14267,15 +14267,15 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1115</v>
+        <v>1766</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14285,15 +14285,15 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14303,15 +14303,15 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14321,15 +14321,15 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14339,15 +14339,15 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>1049</v>
+        <v>1115</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -14357,15 +14357,15 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1990</v>
+        <v>3159</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14375,15 +14375,15 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14393,15 +14393,15 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14411,15 +14411,15 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1999</v>
+        <v>1049</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14429,15 +14429,15 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14447,15 +14447,15 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14465,15 +14465,15 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14483,15 +14483,15 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14501,15 +14501,15 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14519,15 +14519,15 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14537,15 +14537,15 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14555,15 +14555,15 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>1766</v>
+        <v>2390</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14573,15 +14573,15 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14591,15 +14591,15 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14609,15 +14609,15 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14627,15 +14627,15 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>1115</v>
+        <v>8290</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14645,15 +14645,15 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1580</v>
+        <v>1766</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14663,15 +14663,15 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14681,15 +14681,15 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>2939</v>
+        <v>3159</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14699,15 +14699,15 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>1049</v>
+        <v>1115</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14717,15 +14717,15 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>989</v>
+        <v>1580</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14735,15 +14735,15 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14753,15 +14753,15 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>1990</v>
+        <v>10489</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14771,15 +14771,15 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14789,15 +14789,15 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1529</v>
+        <v>1990</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14807,15 +14807,15 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1999</v>
+        <v>1249</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14825,15 +14825,15 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14843,15 +14843,15 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14861,15 +14861,15 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -14879,15 +14879,15 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14897,15 +14897,15 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -14915,15 +14915,15 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>3159</v>
+        <v>1529</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -14933,15 +14933,15 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>1580</v>
+        <v>2390</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14951,15 +14951,15 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14969,15 +14969,15 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
@@ -15005,15 +15005,15 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>1115</v>
+        <v>2205</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15023,15 +15023,15 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>2939</v>
+        <v>4476</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15041,15 +15041,15 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15059,17 +15059,791 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
         <v>45780</v>
       </c>
-      <c r="B813" t="inlineStr">
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>989</v>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>800</v>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B837" t="inlineStr">
         <is>
           <t>Mayonesa</t>
         </is>
       </c>
-      <c r="C813" t="n">
+      <c r="C837" t="n">
         <v>1049</v>
       </c>
-      <c r="D813" t="inlineStr">
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>989</v>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>800</v>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D856" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D856"/>
+  <dimension ref="A1:D900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,151 +8741,151 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>1999</v>
+        <v>1523</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>989</v>
+        <v>2671</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1299</v>
+        <v>1160</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1529</v>
+        <v>900</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1990</v>
+        <v>699</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>1099</v>
+        <v>599</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>8290</v>
+        <v>3400</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -8893,277 +8893,277 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3082</v>
+        <v>8497.5</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2205</v>
+        <v>6376</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>4476</v>
+        <v>1900</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1723</v>
+        <v>4750</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3190</v>
+        <v>12200</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>10489</v>
+        <v>3450</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>1115</v>
+        <v>3300</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45762</v>
+        <v>45782</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C479" t="n">
-        <v>3159</v>
+        <v>4200</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45763</v>
+        <v>45782</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>1990</v>
+        <v>1500</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45763</v>
+        <v>45782</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1999</v>
+        <v>4218</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45763</v>
+        <v>45782</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45763</v>
+        <v>45782</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1099</v>
+        <v>1200</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45763</v>
+        <v>45782</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1529</v>
+        <v>3100</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9173,15 +9173,15 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9191,15 +9191,15 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9209,15 +9209,15 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9227,15 +9227,15 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9245,15 +9245,15 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9281,15 +9281,15 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -9299,15 +9299,15 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9317,15 +9317,15 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9335,15 +9335,15 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9353,15 +9353,15 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -9371,15 +9371,15 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9389,15 +9389,15 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9407,15 +9407,15 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -9425,15 +9425,15 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9443,15 +9443,15 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9461,15 +9461,15 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -9479,15 +9479,15 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9497,15 +9497,15 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9515,15 +9515,15 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9551,15 +9551,15 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9569,15 +9569,15 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,15 +10145,15 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -10289,15 +10289,15 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,15 +10433,15 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,15 +10559,15 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,15 +10685,15 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C570" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,15 +10919,15 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -11045,15 +11045,15 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,15 +11153,15 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -11315,15 +11315,15 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,15 +11405,15 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,15 +11495,15 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11513,15 +11513,15 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,15 +11621,15 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,15 +11693,15 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,15 +11747,15 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,15 +11801,15 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,15 +11855,15 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C635" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -11927,15 +11927,15 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11945,15 +11945,15 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11963,15 +11963,15 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11981,15 +11981,15 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11999,15 +11999,15 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12017,15 +12017,15 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12035,15 +12035,15 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12053,15 +12053,15 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -12089,15 +12089,15 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12107,15 +12107,15 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12125,15 +12125,15 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -12161,15 +12161,15 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12179,15 +12179,15 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -12215,15 +12215,15 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12233,15 +12233,15 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12251,15 +12251,15 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12269,15 +12269,15 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12287,15 +12287,15 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12305,15 +12305,15 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12323,15 +12323,15 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C661" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12341,15 +12341,15 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12359,15 +12359,15 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12377,15 +12377,15 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12395,15 +12395,15 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12413,15 +12413,15 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12431,15 +12431,15 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -12467,15 +12467,15 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -12503,15 +12503,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12521,15 +12521,15 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12539,15 +12539,15 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12557,15 +12557,15 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C674" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12575,15 +12575,15 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12593,15 +12593,15 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12611,15 +12611,15 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C677" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12629,15 +12629,15 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -12701,15 +12701,15 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12719,15 +12719,15 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12737,15 +12737,15 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12755,15 +12755,15 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12773,15 +12773,15 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12791,15 +12791,15 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12809,15 +12809,15 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12827,15 +12827,15 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12845,15 +12845,15 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12863,15 +12863,15 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12881,15 +12881,15 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12899,15 +12899,15 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12917,15 +12917,15 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12935,15 +12935,15 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12953,15 +12953,15 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13007,15 +13007,15 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13025,15 +13025,15 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13043,15 +13043,15 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13061,15 +13061,15 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13079,15 +13079,15 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13097,15 +13097,15 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13115,15 +13115,15 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13133,15 +13133,15 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13151,15 +13151,15 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13169,15 +13169,15 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13187,15 +13187,15 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13205,15 +13205,15 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13223,15 +13223,15 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13241,15 +13241,15 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13277,15 +13277,15 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13295,15 +13295,15 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13313,15 +13313,15 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13331,15 +13331,15 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13349,15 +13349,15 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>1115</v>
+        <v>2699</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13367,15 +13367,15 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13403,15 +13403,15 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13421,15 +13421,15 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13439,15 +13439,15 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13457,15 +13457,15 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13475,15 +13475,15 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13493,15 +13493,15 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1999</v>
+        <v>1723</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13511,15 +13511,15 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13529,15 +13529,15 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13547,15 +13547,15 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3082</v>
+        <v>10489</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13565,15 +13565,15 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13583,15 +13583,15 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13601,15 +13601,15 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13619,15 +13619,15 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13637,15 +13637,15 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13655,15 +13655,15 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13673,15 +13673,15 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13691,15 +13691,15 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13709,15 +13709,15 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13727,15 +13727,15 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13745,15 +13745,15 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>10489</v>
+        <v>999</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13763,15 +13763,15 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13781,15 +13781,15 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13799,15 +13799,15 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13817,15 +13817,15 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>1249</v>
+        <v>1580</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13835,15 +13835,15 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13853,15 +13853,15 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1999</v>
+        <v>1190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13871,15 +13871,15 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>2390</v>
+        <v>10489</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13889,15 +13889,15 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13907,15 +13907,15 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13925,15 +13925,15 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13943,15 +13943,15 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13961,15 +13961,15 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13979,15 +13979,15 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13997,15 +13997,15 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1580</v>
+        <v>1899</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14015,15 +14015,15 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14033,15 +14033,15 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>1190</v>
+        <v>8290</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14051,15 +14051,15 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14069,15 +14069,15 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14087,15 +14087,15 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1899</v>
+        <v>2390</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14105,15 +14105,15 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14123,15 +14123,15 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14141,15 +14141,15 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14159,15 +14159,15 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>1990</v>
+        <v>10489</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14177,15 +14177,15 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14195,15 +14195,15 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>2205</v>
+        <v>3190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14213,15 +14213,15 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14231,15 +14231,15 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14249,15 +14249,15 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14267,15 +14267,15 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1766</v>
+        <v>1999</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14285,15 +14285,15 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14303,15 +14303,15 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14321,15 +14321,15 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14339,15 +14339,15 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -14357,15 +14357,15 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14375,15 +14375,15 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14393,15 +14393,15 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14411,15 +14411,15 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14429,15 +14429,15 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14447,15 +14447,15 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14465,15 +14465,15 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14483,15 +14483,15 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14501,15 +14501,15 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14519,15 +14519,15 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>1899</v>
+        <v>1529</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14537,15 +14537,15 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14555,15 +14555,15 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>2390</v>
+        <v>1249</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14573,15 +14573,15 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14591,15 +14591,15 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
@@ -14627,15 +14627,15 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14645,15 +14645,15 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>1766</v>
+        <v>2699</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14663,15 +14663,15 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14681,15 +14681,15 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>3159</v>
+        <v>1766</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14699,15 +14699,15 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14717,15 +14717,15 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14735,15 +14735,15 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14753,15 +14753,15 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14771,15 +14771,15 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1049</v>
+        <v>3159</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14789,15 +14789,15 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1990</v>
+        <v>3190</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14807,15 +14807,15 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14825,15 +14825,15 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14843,15 +14843,15 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14861,15 +14861,15 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1899</v>
+        <v>1529</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -14879,15 +14879,15 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14897,15 +14897,15 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>3082</v>
+        <v>800</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -14915,15 +14915,15 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -14933,15 +14933,15 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14951,15 +14951,15 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14969,15 +14969,15 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -14987,15 +14987,15 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1766</v>
+        <v>2699</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15005,15 +15005,15 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15023,15 +15023,15 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C811" t="n">
-        <v>4476</v>
+        <v>2205</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15041,15 +15041,15 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15059,15 +15059,15 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>1115</v>
+        <v>1766</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15077,15 +15077,15 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15095,15 +15095,15 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15113,15 +15113,15 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>2939</v>
+        <v>1115</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15131,15 +15131,15 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15149,15 +15149,15 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15167,15 +15167,15 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15185,15 +15185,15 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1990</v>
+        <v>1049</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15203,15 +15203,15 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -15221,15 +15221,15 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1529</v>
+        <v>1249</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -15239,15 +15239,15 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15257,15 +15257,15 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15275,15 +15275,15 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15293,15 +15293,15 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15311,15 +15311,15 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15329,15 +15329,15 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>2205</v>
+        <v>1529</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -15347,15 +15347,15 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -15365,15 +15365,15 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15383,15 +15383,15 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15401,15 +15401,15 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>4476</v>
+        <v>1766</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15419,15 +15419,15 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>1766</v>
+        <v>2205</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15437,15 +15437,15 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15455,15 +15455,15 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>2939</v>
+        <v>3159</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15473,15 +15473,15 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -15491,15 +15491,15 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15509,15 +15509,15 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -15527,15 +15527,15 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>1529</v>
+        <v>2939</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15545,15 +15545,15 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>1249</v>
+        <v>1049</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15563,15 +15563,15 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -15581,15 +15581,15 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1990</v>
+        <v>1249</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15599,15 +15599,15 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15617,15 +15617,15 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15635,15 +15635,15 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15653,15 +15653,15 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15671,15 +15671,15 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -15689,15 +15689,15 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15707,15 +15707,15 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15725,15 +15725,15 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>1766</v>
+        <v>8290</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15743,15 +15743,15 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
@@ -15779,15 +15779,15 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>2939</v>
+        <v>1580</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15797,15 +15797,15 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15815,15 +15815,15 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1049</v>
+        <v>4476</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15833,17 +15833,809 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
         <v>45781</v>
       </c>
-      <c r="B856" t="inlineStr">
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>989</v>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>800</v>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B879" t="inlineStr">
         <is>
           <t>Café</t>
         </is>
       </c>
-      <c r="C856" t="n">
+      <c r="C879" t="n">
         <v>10489</v>
       </c>
-      <c r="D856" t="inlineStr">
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>800</v>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>989</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>999</v>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D900" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D900"/>
+  <dimension ref="A1:D943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -9163,143 +9163,143 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>1999</v>
+        <v>1160</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>989</v>
+        <v>2671</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1299</v>
+        <v>1523</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1529</v>
+        <v>3400</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1990</v>
+        <v>2300</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1099</v>
+        <v>599</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C492" t="n">
-        <v>8290</v>
+        <v>699</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -9307,53 +9307,53 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3082</v>
+        <v>8497.5</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2205</v>
+        <v>6376</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -9361,223 +9361,223 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>4476</v>
+        <v>4750</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C497" t="n">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1723</v>
+        <v>4218</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3190</v>
+        <v>3450</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>10489</v>
+        <v>4200</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1115</v>
+        <v>2300</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3159</v>
+        <v>12300</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1990</v>
+        <v>1200</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>1999</v>
+        <v>3300</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1099</v>
+        <v>3100</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>1529</v>
+        <v>1250</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Hiper Libertad</t>
+          <t>Disco</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1299</v>
+        <v>800</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9587,15 +9587,15 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>989</v>
+        <v>1999</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9605,15 +9605,15 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9623,15 +9623,15 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C511" t="n">
-        <v>2390</v>
+        <v>1299</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9641,15 +9641,15 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9659,15 +9659,15 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2205</v>
+        <v>1990</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9677,15 +9677,15 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2699</v>
+        <v>1099</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9695,15 +9695,15 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9713,15 +9713,15 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9731,15 +9731,15 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9749,15 +9749,15 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9767,15 +9767,15 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9785,15 +9785,15 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>4210</v>
+        <v>2350</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9803,15 +9803,15 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9821,15 +9821,15 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -9839,15 +9839,15 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45763</v>
+        <v>45762</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9857,15 +9857,15 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9875,15 +9875,15 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45764</v>
+        <v>45762</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1299</v>
+        <v>3159</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9893,15 +9893,15 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9911,15 +9911,15 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9929,15 +9929,15 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9947,15 +9947,15 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9965,15 +9965,15 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9983,15 +9983,15 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1723</v>
+        <v>1299</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -10001,15 +10001,15 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10019,15 +10019,15 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C533" t="n">
-        <v>999</v>
+        <v>1899</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10037,15 +10037,15 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C534" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10055,15 +10055,15 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10073,15 +10073,15 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>8290</v>
+        <v>2205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10091,15 +10091,15 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10109,15 +10109,15 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -10127,15 +10127,15 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -10163,15 +10163,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C541" t="n">
-        <v>4210</v>
+        <v>1723</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10181,15 +10181,15 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10199,15 +10199,15 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10217,15 +10217,15 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45764</v>
+        <v>45763</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10235,15 +10235,15 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C545" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -10253,15 +10253,15 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1899</v>
+        <v>3190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10271,15 +10271,15 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1999</v>
+        <v>1099</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -10307,15 +10307,15 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10325,15 +10325,15 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C550" t="n">
-        <v>1099</v>
+        <v>1529</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10343,15 +10343,15 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10361,15 +10361,15 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>1990</v>
+        <v>989</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10379,15 +10379,15 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10397,15 +10397,15 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>8290</v>
+        <v>1723</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -10415,15 +10415,15 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -10451,15 +10451,15 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -10469,15 +10469,15 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>989</v>
+        <v>2390</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -10487,15 +10487,15 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>1723</v>
+        <v>8290</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -10505,15 +10505,15 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -10523,15 +10523,15 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10541,15 +10541,15 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>4210</v>
+        <v>4476</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -10559,15 +10559,15 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1115</v>
+        <v>3159</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10577,15 +10577,15 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45765</v>
+        <v>45764</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10595,15 +10595,15 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C565" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10613,15 +10613,15 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1529</v>
+        <v>1115</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10631,15 +10631,15 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45766</v>
+        <v>45764</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1299</v>
+        <v>3190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10649,15 +10649,15 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1899</v>
+        <v>800</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10667,15 +10667,15 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1099</v>
+        <v>1899</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -10703,15 +10703,15 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10721,15 +10721,15 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C572" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10739,15 +10739,15 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2390</v>
+        <v>1099</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -10757,15 +10757,15 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C574" t="n">
-        <v>8290</v>
+        <v>2699</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10775,15 +10775,15 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10793,15 +10793,15 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C576" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -10811,15 +10811,15 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10829,15 +10829,15 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10847,15 +10847,15 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>4476</v>
+        <v>999</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10865,15 +10865,15 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -10883,15 +10883,15 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C581" t="n">
-        <v>4210</v>
+        <v>989</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10901,15 +10901,15 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1580</v>
+        <v>1723</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10919,15 +10919,15 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3082</v>
+        <v>4476</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10955,15 +10955,15 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10973,15 +10973,15 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45766</v>
+        <v>45765</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -10991,15 +10991,15 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45767</v>
+        <v>45765</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>1099</v>
+        <v>3190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -11009,15 +11009,15 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1529</v>
+        <v>800</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11027,15 +11027,15 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C589" t="n">
-        <v>989</v>
+        <v>1529</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -11063,15 +11063,15 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11081,15 +11081,15 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1899</v>
+        <v>1099</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11099,15 +11099,15 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>800</v>
+        <v>1999</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11117,15 +11117,15 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C594" t="n">
-        <v>999</v>
+        <v>1990</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11135,15 +11135,15 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -11171,15 +11171,15 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3082</v>
+        <v>8290</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11189,15 +11189,15 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1723</v>
+        <v>999</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11207,15 +11207,15 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2699</v>
+        <v>2205</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11225,15 +11225,15 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -11243,15 +11243,15 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>4476</v>
+        <v>1723</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11261,15 +11261,15 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11279,15 +11279,15 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>4210</v>
+        <v>3159</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11297,15 +11297,15 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1115</v>
+        <v>4210</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11315,15 +11315,15 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1649</v>
+        <v>1580</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -11333,15 +11333,15 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3190</v>
+        <v>3082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11351,15 +11351,15 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45767</v>
+        <v>45766</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1580</v>
+        <v>1649</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11369,15 +11369,15 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>800</v>
+        <v>1115</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11387,15 +11387,15 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45768</v>
+        <v>45766</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11405,15 +11405,15 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1299</v>
+        <v>1099</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11423,15 +11423,15 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -11459,15 +11459,15 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -11477,15 +11477,15 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -11513,15 +11513,15 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11531,15 +11531,15 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2390</v>
+        <v>999</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11549,15 +11549,15 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2205</v>
+        <v>8290</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11567,15 +11567,15 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C619" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11585,15 +11585,15 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C620" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11603,15 +11603,15 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C621" t="n">
-        <v>2699</v>
+        <v>1723</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11621,15 +11621,15 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11639,15 +11639,15 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11657,15 +11657,15 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1723</v>
+        <v>4476</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11675,15 +11675,15 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1649</v>
+        <v>3159</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -11729,15 +11729,15 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>3190</v>
+        <v>1649</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11747,15 +11747,15 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3159</v>
+        <v>3190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11765,15 +11765,15 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45769</v>
+        <v>45767</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11783,15 +11783,15 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1099</v>
+        <v>800</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11801,15 +11801,15 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>800</v>
+        <v>1529</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11819,15 +11819,15 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1990</v>
+        <v>1299</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11837,15 +11837,15 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -11873,15 +11873,15 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11891,15 +11891,15 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C637" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11909,15 +11909,15 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C638" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11927,15 +11927,15 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2205</v>
+        <v>999</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11945,15 +11945,15 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C640" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11963,15 +11963,15 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11981,15 +11981,15 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>2699</v>
+        <v>3082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -11999,15 +11999,15 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -12017,15 +12017,15 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C644" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12035,15 +12035,15 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12053,15 +12053,15 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12071,15 +12071,15 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1190</v>
+        <v>1723</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12089,15 +12089,15 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>4210</v>
+        <v>1649</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12107,15 +12107,15 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1580</v>
+        <v>4210</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45769</v>
+        <v>45768</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -12143,15 +12143,15 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12161,15 +12161,15 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45770</v>
+        <v>45768</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12179,15 +12179,15 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1990</v>
+        <v>1529</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12197,15 +12197,15 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1529</v>
+        <v>1099</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12215,15 +12215,15 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12233,15 +12233,15 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1099</v>
+        <v>1990</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1249</v>
+        <v>1299</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12269,15 +12269,15 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12287,15 +12287,15 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C659" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12305,15 +12305,15 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C660" t="n">
-        <v>2699</v>
+        <v>8290</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -12341,15 +12341,15 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1723</v>
+        <v>2205</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12359,15 +12359,15 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C663" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12377,15 +12377,15 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C664" t="n">
-        <v>999</v>
+        <v>1723</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12395,15 +12395,15 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C665" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12413,15 +12413,15 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3159</v>
+        <v>4476</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12431,15 +12431,15 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1580</v>
+        <v>3159</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12449,15 +12449,15 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Aceite</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C668" t="n">
-        <v>4210</v>
+        <v>10489</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12467,15 +12467,15 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C669" t="n">
-        <v>10489</v>
+        <v>3190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -12503,15 +12503,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3190</v>
+        <v>4210</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12521,15 +12521,15 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45770</v>
+        <v>45769</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12539,15 +12539,15 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45771</v>
+        <v>45769</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -12575,15 +12575,15 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12593,15 +12593,15 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1899</v>
+        <v>1990</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -12629,15 +12629,15 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C678" t="n">
-        <v>1099</v>
+        <v>1999</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12647,15 +12647,15 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3082</v>
+        <v>1099</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12665,15 +12665,15 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C680" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12683,15 +12683,15 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12701,15 +12701,15 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C682" t="n">
-        <v>2390</v>
+        <v>8290</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12719,15 +12719,15 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2205</v>
+        <v>2699</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12737,15 +12737,15 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C684" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12755,15 +12755,15 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12773,15 +12773,15 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12791,15 +12791,15 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C687" t="n">
-        <v>2699</v>
+        <v>999</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12809,15 +12809,15 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C688" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12827,15 +12827,15 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12845,15 +12845,15 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C690" t="n">
-        <v>4476</v>
+        <v>1580</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -12881,15 +12881,15 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3190</v>
+        <v>10489</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -12917,15 +12917,15 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12935,15 +12935,15 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45772</v>
+        <v>45770</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1999</v>
+        <v>1115</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12953,15 +12953,15 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C696" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12971,15 +12971,15 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C697" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C698" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13007,15 +13007,15 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1249</v>
+        <v>1899</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13025,15 +13025,15 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C700" t="n">
-        <v>2699</v>
+        <v>1529</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13043,15 +13043,15 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C701" t="n">
-        <v>8290</v>
+        <v>1099</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13061,15 +13061,15 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C702" t="n">
-        <v>999</v>
+        <v>3082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13079,15 +13079,15 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3082</v>
+        <v>999</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
@@ -13115,15 +13115,15 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C705" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13133,15 +13133,15 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13151,15 +13151,15 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C707" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13169,15 +13169,15 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C708" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13187,15 +13187,15 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13205,15 +13205,15 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C710" t="n">
-        <v>1190</v>
+        <v>2699</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13223,15 +13223,15 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45772</v>
+        <v>45771</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C711" t="n">
-        <v>3190</v>
+        <v>1115</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13241,15 +13241,15 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1529</v>
+        <v>10489</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13259,15 +13259,15 @@
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C713" t="n">
-        <v>989</v>
+        <v>4476</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13277,15 +13277,15 @@
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Aceite</t>
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1249</v>
+        <v>4210</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -13295,15 +13295,15 @@
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1999</v>
+        <v>3190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13313,15 +13313,15 @@
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
-        <v>45773</v>
+        <v>45771</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C716" t="n">
-        <v>1899</v>
+        <v>1190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13331,15 +13331,15 @@
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C717" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13349,15 +13349,15 @@
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2699</v>
+        <v>1999</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13367,15 +13367,15 @@
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C719" t="n">
-        <v>2390</v>
+        <v>989</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13385,15 +13385,15 @@
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C720" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13403,15 +13403,15 @@
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C721" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13421,15 +13421,15 @@
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C722" t="n">
-        <v>3159</v>
+        <v>1249</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13439,15 +13439,15 @@
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1580</v>
+        <v>2699</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13457,15 +13457,15 @@
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C724" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13475,15 +13475,15 @@
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13493,15 +13493,15 @@
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1723</v>
+        <v>3082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13511,15 +13511,15 @@
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C727" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -13529,15 +13529,15 @@
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C728" t="n">
-        <v>1190</v>
+        <v>4476</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13547,15 +13547,15 @@
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
-        <v>45773</v>
+        <v>45772</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C729" t="n">
-        <v>10489</v>
+        <v>1580</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13565,15 +13565,15 @@
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1899</v>
+        <v>3159</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13583,15 +13583,15 @@
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1999</v>
+        <v>10489</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13601,15 +13601,15 @@
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13619,15 +13619,15 @@
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C733" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13637,15 +13637,15 @@
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
-        <v>45774</v>
+        <v>45772</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1529</v>
+        <v>3190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13655,15 +13655,15 @@
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C735" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -13673,15 +13673,15 @@
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C736" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13691,15 +13691,15 @@
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C737" t="n">
-        <v>3082</v>
+        <v>1249</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13709,15 +13709,15 @@
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C738" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13727,15 +13727,15 @@
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4476</v>
+        <v>1899</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13745,15 +13745,15 @@
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C740" t="n">
-        <v>999</v>
+        <v>8290</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13763,15 +13763,15 @@
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1115</v>
+        <v>2699</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13781,15 +13781,15 @@
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1723</v>
+        <v>2390</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13799,15 +13799,15 @@
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C743" t="n">
-        <v>3159</v>
+        <v>3082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13817,15 +13817,15 @@
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C744" t="n">
-        <v>1580</v>
+        <v>999</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13835,15 +13835,15 @@
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C745" t="n">
-        <v>3190</v>
+        <v>3159</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13853,15 +13853,15 @@
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1190</v>
+        <v>1580</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13871,15 +13871,15 @@
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C747" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13889,15 +13889,15 @@
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13907,15 +13907,15 @@
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C749" t="n">
-        <v>1999</v>
+        <v>1723</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13925,15 +13925,15 @@
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C750" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13943,15 +13943,15 @@
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13961,15 +13961,15 @@
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
-        <v>45775</v>
+        <v>45773</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C752" t="n">
-        <v>3082</v>
+        <v>10489</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13979,15 +13979,15 @@
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C753" t="n">
-        <v>2699</v>
+        <v>1899</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13997,15 +13997,15 @@
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14015,15 +14015,15 @@
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C755" t="n">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14033,15 +14033,15 @@
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C756" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14051,15 +14051,15 @@
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14069,15 +14069,15 @@
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C758" t="n">
-        <v>4476</v>
+        <v>2390</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -14087,15 +14087,15 @@
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C759" t="n">
-        <v>2390</v>
+        <v>2699</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14105,15 +14105,15 @@
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1580</v>
+        <v>3082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14123,15 +14123,15 @@
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C761" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14141,15 +14141,15 @@
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14159,15 +14159,15 @@
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C763" t="n">
-        <v>10489</v>
+        <v>999</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14177,15 +14177,15 @@
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C764" t="n">
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14195,15 +14195,15 @@
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
-        <v>45775</v>
+        <v>45774</v>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C765" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -14213,15 +14213,15 @@
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C766" t="n">
-        <v>1529</v>
+        <v>3159</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -14231,15 +14231,15 @@
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1249</v>
+        <v>1580</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14249,15 +14249,15 @@
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C768" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14267,15 +14267,15 @@
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1999</v>
+        <v>1190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14285,15 +14285,15 @@
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
-        <v>45776</v>
+        <v>45774</v>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C770" t="n">
-        <v>2390</v>
+        <v>10489</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14303,15 +14303,15 @@
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C771" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14321,15 +14321,15 @@
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C772" t="n">
-        <v>8290</v>
+        <v>1999</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14339,15 +14339,15 @@
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C773" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -14357,15 +14357,15 @@
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1723</v>
+        <v>1529</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14375,15 +14375,15 @@
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C775" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14393,15 +14393,15 @@
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C776" t="n">
-        <v>3159</v>
+        <v>2699</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14411,15 +14411,15 @@
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C777" t="n">
-        <v>1580</v>
+        <v>1899</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -14429,15 +14429,15 @@
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Cebolla</t>
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1115</v>
+        <v>999</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14447,15 +14447,15 @@
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1190</v>
+        <v>8290</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14465,15 +14465,15 @@
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C780" t="n">
-        <v>3190</v>
+        <v>1723</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14483,15 +14483,15 @@
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
-        <v>45776</v>
+        <v>45775</v>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C781" t="n">
-        <v>10489</v>
+        <v>4476</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14501,15 +14501,15 @@
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C782" t="n">
-        <v>1899</v>
+        <v>2390</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14519,15 +14519,15 @@
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C783" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14537,15 +14537,15 @@
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1999</v>
+        <v>3159</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14555,15 +14555,15 @@
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C785" t="n">
-        <v>1249</v>
+        <v>1115</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14573,15 +14573,15 @@
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1990</v>
+        <v>10489</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14591,15 +14591,15 @@
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C787" t="n">
-        <v>989</v>
+        <v>1190</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14609,15 +14609,15 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>45777</v>
+        <v>45775</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C788" t="n">
-        <v>2205</v>
+        <v>3190</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14627,15 +14627,15 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C789" t="n">
-        <v>2390</v>
+        <v>1529</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14645,15 +14645,15 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C790" t="n">
-        <v>2699</v>
+        <v>1249</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -14663,15 +14663,15 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C791" t="n">
-        <v>8290</v>
+        <v>989</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14681,15 +14681,15 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C792" t="n">
-        <v>1766</v>
+        <v>1999</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14699,15 +14699,15 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C793" t="n">
-        <v>3082</v>
+        <v>2390</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14717,15 +14717,15 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C794" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14735,15 +14735,15 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C795" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14753,15 +14753,15 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C796" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14771,15 +14771,15 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C797" t="n">
-        <v>3159</v>
+        <v>1723</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14789,15 +14789,15 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C798" t="n">
-        <v>3190</v>
+        <v>4476</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14807,15 +14807,15 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C799" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14825,15 +14825,15 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>45777</v>
+        <v>45776</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14843,15 +14843,15 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C801" t="n">
-        <v>989</v>
+        <v>1115</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14861,15 +14861,15 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1529</v>
+        <v>1190</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -14879,15 +14879,15 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C803" t="n">
-        <v>1249</v>
+        <v>3190</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14897,15 +14897,15 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C804" t="n">
-        <v>800</v>
+        <v>10489</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -14915,15 +14915,15 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C805" t="n">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -14933,15 +14933,15 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C806" t="n">
-        <v>1899</v>
+        <v>1529</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14951,15 +14951,15 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14969,15 +14969,15 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C808" t="n">
-        <v>2390</v>
+        <v>1249</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -14987,15 +14987,15 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C809" t="n">
-        <v>2699</v>
+        <v>1990</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15005,15 +15005,15 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C810" t="n">
-        <v>3082</v>
+        <v>989</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
@@ -15041,15 +15041,15 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C812" t="n">
-        <v>8290</v>
+        <v>2390</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15059,15 +15059,15 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C813" t="n">
-        <v>1766</v>
+        <v>2699</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15077,15 +15077,15 @@
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C814" t="n">
-        <v>4476</v>
+        <v>8290</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15095,15 +15095,15 @@
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C815" t="n">
-        <v>3159</v>
+        <v>1766</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15113,15 +15113,15 @@
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C816" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15131,15 +15131,15 @@
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C817" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -15149,15 +15149,15 @@
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C818" t="n">
-        <v>3190</v>
+        <v>1580</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15167,15 +15167,15 @@
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C819" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15185,15 +15185,15 @@
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1049</v>
+        <v>3159</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15203,15 +15203,15 @@
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C821" t="n">
-        <v>1990</v>
+        <v>3190</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -15221,15 +15221,15 @@
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -15239,15 +15239,15 @@
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C823" t="n">
-        <v>800</v>
+        <v>1049</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15257,15 +15257,15 @@
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1999</v>
+        <v>989</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15275,15 +15275,15 @@
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1899</v>
+        <v>1529</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15293,15 +15293,15 @@
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C826" t="n">
-        <v>989</v>
+        <v>1249</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15311,15 +15311,15 @@
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C827" t="n">
-        <v>3082</v>
+        <v>800</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15329,15 +15329,15 @@
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C828" t="n">
-        <v>1529</v>
+        <v>1999</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -15347,15 +15347,15 @@
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C829" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -15365,15 +15365,15 @@
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C830" t="n">
-        <v>8290</v>
+        <v>1990</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15383,15 +15383,15 @@
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2699</v>
+        <v>2390</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15401,15 +15401,15 @@
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C832" t="n">
-        <v>1766</v>
+        <v>2699</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15419,15 +15419,15 @@
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C833" t="n">
-        <v>2205</v>
+        <v>3082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15437,15 +15437,15 @@
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C834" t="n">
-        <v>4476</v>
+        <v>2205</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15455,15 +15455,15 @@
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C835" t="n">
-        <v>3159</v>
+        <v>8290</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15473,15 +15473,15 @@
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C836" t="n">
-        <v>1115</v>
+        <v>1766</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -15491,15 +15491,15 @@
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1580</v>
+        <v>4476</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15509,15 +15509,15 @@
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C838" t="n">
-        <v>10489</v>
+        <v>3159</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -15527,15 +15527,15 @@
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2939</v>
+        <v>1115</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15545,15 +15545,15 @@
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
-        <v>45779</v>
+        <v>45778</v>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C840" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15563,15 +15563,15 @@
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C841" t="n">
-        <v>989</v>
+        <v>3190</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -15581,15 +15581,15 @@
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15599,15 +15599,15 @@
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C843" t="n">
-        <v>1990</v>
+        <v>1049</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15617,15 +15617,15 @@
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C844" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15635,15 +15635,15 @@
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C845" t="n">
-        <v>1529</v>
+        <v>1249</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15653,15 +15653,15 @@
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15671,15 +15671,15 @@
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C847" t="n">
-        <v>1899</v>
+        <v>1999</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -15689,15 +15689,15 @@
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C848" t="n">
-        <v>2390</v>
+        <v>1899</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15707,15 +15707,15 @@
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Manzana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C849" t="n">
-        <v>2699</v>
+        <v>989</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15725,15 +15725,15 @@
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C850" t="n">
-        <v>8290</v>
+        <v>3082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15743,15 +15743,15 @@
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C851" t="n">
-        <v>2205</v>
+        <v>1529</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15761,15 +15761,15 @@
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C852" t="n">
-        <v>3159</v>
+        <v>2390</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15779,15 +15779,15 @@
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1580</v>
+        <v>8290</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15797,15 +15797,15 @@
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C854" t="n">
-        <v>3082</v>
+        <v>2699</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15815,15 +15815,15 @@
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C855" t="n">
-        <v>4476</v>
+        <v>1766</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15833,15 +15833,15 @@
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C856" t="n">
-        <v>1766</v>
+        <v>2205</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -15851,15 +15851,15 @@
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C857" t="n">
-        <v>1115</v>
+        <v>4476</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -15869,15 +15869,15 @@
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C858" t="n">
-        <v>2939</v>
+        <v>3159</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -15887,15 +15887,15 @@
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C859" t="n">
-        <v>10489</v>
+        <v>1115</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -15905,15 +15905,15 @@
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
-        <v>45780</v>
+        <v>45779</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C860" t="n">
-        <v>1049</v>
+        <v>1580</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -15923,15 +15923,15 @@
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C861" t="n">
-        <v>989</v>
+        <v>10489</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -15941,15 +15941,15 @@
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C862" t="n">
-        <v>1529</v>
+        <v>2939</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -15959,15 +15959,15 @@
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C863" t="n">
-        <v>1249</v>
+        <v>1049</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -15977,15 +15977,15 @@
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C864" t="n">
-        <v>1899</v>
+        <v>989</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -15995,15 +15995,15 @@
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1990</v>
+        <v>1249</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -16013,15 +16013,15 @@
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C866" t="n">
-        <v>800</v>
+        <v>1990</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16031,15 +16031,15 @@
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C867" t="n">
-        <v>1999</v>
+        <v>800</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16049,15 +16049,15 @@
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C868" t="n">
-        <v>8290</v>
+        <v>1529</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -16067,15 +16067,15 @@
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2390</v>
+        <v>1999</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16085,15 +16085,15 @@
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C870" t="n">
-        <v>3082</v>
+        <v>1899</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16103,15 +16103,15 @@
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C871" t="n">
-        <v>2205</v>
+        <v>2390</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16121,15 +16121,15 @@
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Manzana</t>
         </is>
       </c>
       <c r="C872" t="n">
-        <v>4476</v>
+        <v>2699</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16139,15 +16139,15 @@
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C873" t="n">
-        <v>1766</v>
+        <v>8290</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16157,15 +16157,15 @@
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C874" t="n">
-        <v>1580</v>
+        <v>2205</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
@@ -16193,15 +16193,15 @@
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C876" t="n">
-        <v>2939</v>
+        <v>1580</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -16211,15 +16211,15 @@
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C877" t="n">
-        <v>1115</v>
+        <v>3082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16229,15 +16229,15 @@
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C878" t="n">
-        <v>1049</v>
+        <v>4476</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16247,15 +16247,15 @@
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
-        <v>45781</v>
+        <v>45780</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C879" t="n">
-        <v>10489</v>
+        <v>1766</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -16265,15 +16265,15 @@
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1990</v>
+        <v>1115</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16283,15 +16283,15 @@
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C881" t="n">
-        <v>800</v>
+        <v>2939</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16301,15 +16301,15 @@
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C882" t="n">
-        <v>1249</v>
+        <v>10489</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -16319,15 +16319,15 @@
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C883" t="n">
-        <v>1899</v>
+        <v>1049</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
@@ -16355,15 +16355,15 @@
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C885" t="n">
-        <v>1999</v>
+        <v>1529</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -16373,15 +16373,15 @@
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1529</v>
+        <v>1249</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16391,15 +16391,15 @@
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C887" t="n">
-        <v>8290</v>
+        <v>1899</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -16409,15 +16409,15 @@
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C888" t="n">
-        <v>2390</v>
+        <v>1990</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -16427,15 +16427,15 @@
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>Huevo</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C889" t="n">
-        <v>2205</v>
+        <v>800</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -16445,15 +16445,15 @@
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C890" t="n">
-        <v>3082</v>
+        <v>1999</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16463,15 +16463,15 @@
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C891" t="n">
-        <v>1766</v>
+        <v>8290</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -16481,15 +16481,15 @@
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Cebolla</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C892" t="n">
-        <v>999</v>
+        <v>2390</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -16499,15 +16499,15 @@
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Queso crema</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C893" t="n">
-        <v>4476</v>
+        <v>3082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -16517,15 +16517,15 @@
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Yogur</t>
+          <t>Huevo</t>
         </is>
       </c>
       <c r="C894" t="n">
-        <v>3159</v>
+        <v>2205</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16535,15 +16535,15 @@
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Queso crema</t>
         </is>
       </c>
       <c r="C895" t="n">
-        <v>1649</v>
+        <v>4476</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16553,15 +16553,15 @@
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C896" t="n">
-        <v>1580</v>
+        <v>1766</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -16571,15 +16571,15 @@
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C897" t="n">
-        <v>1115</v>
+        <v>1580</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16589,15 +16589,15 @@
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Yogur</t>
         </is>
       </c>
       <c r="C898" t="n">
-        <v>2939</v>
+        <v>3159</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16607,15 +16607,15 @@
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>45782</v>
+        <v>45781</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>1049</v>
+        <v>2939</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16625,17 +16625,791 @@
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
         <v>45782</v>
       </c>
-      <c r="B900" t="inlineStr">
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>800</v>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>989</v>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Cebolla</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>999</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B923" t="inlineStr">
         <is>
           <t>Café</t>
         </is>
       </c>
-      <c r="C900" t="n">
+      <c r="C923" t="n">
         <v>10489</v>
       </c>
-      <c r="D900" t="inlineStr">
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>989</v>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>1249</v>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Harina</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>800</v>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>1990</v>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>2390</v>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>4476</v>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>2699</v>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>3159</v>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>2939</v>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D943" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>

--- a/data/datos_limpios.xlsx
+++ b/data/datos_limpios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1818"/>
+  <dimension ref="A1:D1839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16607,15 +16607,15 @@
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Galletas dulces</t>
+          <t>Arroz</t>
         </is>
       </c>
       <c r="C899" t="n">
-        <v>2850</v>
+        <v>2350</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16625,15 +16625,15 @@
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Dulce de Leche</t>
+          <t>Galletas de agua</t>
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3500</v>
+        <v>1522</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16643,15 +16643,15 @@
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Galletas de agua</t>
+          <t>Galletas dulces</t>
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1522</v>
+        <v>2850</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -16661,15 +16661,15 @@
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Azucar</t>
+          <t>Batata</t>
         </is>
       </c>
       <c r="C902" t="n">
-        <v>1200</v>
+        <v>1399</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -16679,15 +16679,15 @@
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Harina</t>
+          <t>Papa</t>
         </is>
       </c>
       <c r="C903" t="n">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16697,15 +16697,15 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Batata</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C904" t="n">
-        <v>1399</v>
+        <v>950</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -16715,15 +16715,15 @@
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>Dulce de Leche</t>
         </is>
       </c>
       <c r="C905" t="n">
-        <v>2350</v>
+        <v>3500</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -16733,15 +16733,15 @@
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Pollo</t>
+          <t>Azucar</t>
         </is>
       </c>
       <c r="C906" t="n">
-        <v>8497.5</v>
+        <v>1200</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16751,15 +16751,15 @@
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Salame</t>
+          <t>Pollo</t>
         </is>
       </c>
       <c r="C907" t="n">
-        <v>6376</v>
+        <v>8497.5</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16769,15 +16769,15 @@
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Papa</t>
+          <t>Leche</t>
         </is>
       </c>
       <c r="C908" t="n">
-        <v>969</v>
+        <v>1950</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16787,15 +16787,15 @@
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>Salame</t>
         </is>
       </c>
       <c r="C909" t="n">
-        <v>1950</v>
+        <v>6376</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -16805,15 +16805,15 @@
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Sal fina</t>
+          <t>Gaseosa</t>
         </is>
       </c>
       <c r="C910" t="n">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16823,15 +16823,15 @@
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>Gaseosa</t>
+          <t>Manteca</t>
         </is>
       </c>
       <c r="C911" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
@@ -16859,15 +16859,15 @@
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Cerveza</t>
+          <t>Yerba</t>
         </is>
       </c>
       <c r="C913" t="n">
-        <v>3550</v>
+        <v>3300</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16877,15 +16877,15 @@
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>Sal fina</t>
         </is>
       </c>
       <c r="C914" t="n">
-        <v>12450</v>
+        <v>1200</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16895,15 +16895,15 @@
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Vinagre</t>
+          <t>Café</t>
         </is>
       </c>
       <c r="C915" t="n">
-        <v>1500</v>
+        <v>12450</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -16913,15 +16913,15 @@
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Mayonesa</t>
+          <t>Vinagre</t>
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -16931,15 +16931,15 @@
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Yerba</t>
+          <t>Cerveza</t>
         </is>
       </c>
       <c r="C917" t="n">
-        <v>3300</v>
+        <v>3550</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -16949,15 +16949,15 @@
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>45808</v>
+        <v>45809</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Manteca</t>
+          <t>Mayonesa</t>
         </is>
       </c>
       <c r="C918" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -33160,6 +33160,384 @@
         <v>1120</v>
       </c>
       <c r="D1818" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>Batata</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>1699</v>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>Galletas dulces</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>Galletas de agua</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>1529</v>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>Papa</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>989</v>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>Queso crema</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>4795</v>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>Dulce de Leche</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>2342</v>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>2599</v>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>Huevo</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>2205</v>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>1766</v>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>Salame</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>3590</v>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>Yogur</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>Pollo</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>8290</v>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>Sal fina</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>Yerba</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>3490</v>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>Café</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>10489</v>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>Vinagre</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>Mayonesa</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>Hiper Libertad</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D1839" t="inlineStr">
         <is>
           <t>Hiper Libertad</t>
         </is>
